--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_100ha_100ha_2%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_100ha_100ha_2%_6m_0_LM/Planilha_Unificada.xlsx
@@ -4677,28 +4677,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>694.6280280870134</v>
+        <v>743.4104305417261</v>
       </c>
       <c r="AB2" t="n">
-        <v>950.4207128544484</v>
+        <v>1017.166948020693</v>
       </c>
       <c r="AC2" t="n">
-        <v>859.7138939434674</v>
+        <v>920.0899621043751</v>
       </c>
       <c r="AD2" t="n">
-        <v>694628.0280870134</v>
+        <v>743410.4305417261</v>
       </c>
       <c r="AE2" t="n">
-        <v>950420.7128544485</v>
+        <v>1017166.948020693</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.000950807663981e-06</v>
+        <v>3.702282871972112e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.594791666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>859713.8939434674</v>
+        <v>920089.9621043751</v>
       </c>
     </row>
     <row r="3">
@@ -4783,28 +4783,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>259.4929481715239</v>
+        <v>283.7988980528597</v>
       </c>
       <c r="AB3" t="n">
-        <v>355.0496997091927</v>
+        <v>388.3061726396656</v>
       </c>
       <c r="AC3" t="n">
-        <v>321.1642546843298</v>
+        <v>351.2467765140713</v>
       </c>
       <c r="AD3" t="n">
-        <v>259492.9481715239</v>
+        <v>283798.8980528596</v>
       </c>
       <c r="AE3" t="n">
-        <v>355049.6997091927</v>
+        <v>388306.1726396657</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.689854824893924e-06</v>
+        <v>6.827197483288906e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.118749999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>321164.2546843298</v>
+        <v>351246.7765140713</v>
       </c>
     </row>
     <row r="4">
@@ -4889,28 +4889,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>195.9865403114525</v>
+        <v>220.2071493382163</v>
       </c>
       <c r="AB4" t="n">
-        <v>268.1574307699382</v>
+        <v>301.2971365781964</v>
       </c>
       <c r="AC4" t="n">
-        <v>242.5648619386516</v>
+        <v>272.5417607364494</v>
       </c>
       <c r="AD4" t="n">
-        <v>195986.5403114525</v>
+        <v>220207.1493382163</v>
       </c>
       <c r="AE4" t="n">
-        <v>268157.4307699382</v>
+        <v>301297.1365781964</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.365007955388886e-06</v>
+        <v>8.07640753953613e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.481250000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>242564.8619386516</v>
+        <v>272541.7607364494</v>
       </c>
     </row>
     <row r="5">
@@ -4995,28 +4995,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>186.1898757172384</v>
+        <v>210.4104847440022</v>
       </c>
       <c r="AB5" t="n">
-        <v>254.7532020738024</v>
+        <v>287.8929078820606</v>
       </c>
       <c r="AC5" t="n">
-        <v>230.4399140163176</v>
+        <v>260.4168128141154</v>
       </c>
       <c r="AD5" t="n">
-        <v>186189.8757172384</v>
+        <v>210410.4847440022</v>
       </c>
       <c r="AE5" t="n">
-        <v>254753.2020738024</v>
+        <v>287892.9078820606</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.556700093130973e-06</v>
+        <v>8.431088182126634e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.335416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>230439.9140163176</v>
+        <v>260416.8128141154</v>
       </c>
     </row>
     <row r="6">
@@ -5101,28 +5101,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>174.859152312468</v>
+        <v>187.054842434697</v>
       </c>
       <c r="AB6" t="n">
-        <v>239.2500064351661</v>
+        <v>255.936687696267</v>
       </c>
       <c r="AC6" t="n">
-        <v>216.4163216105561</v>
+        <v>231.5104494320071</v>
       </c>
       <c r="AD6" t="n">
-        <v>174859.152312468</v>
+        <v>187054.842434697</v>
       </c>
       <c r="AE6" t="n">
-        <v>239250.0064351661</v>
+        <v>255936.687696267</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.769399588433838e-06</v>
+        <v>8.824637936233905e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.186458333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>216416.321610556</v>
+        <v>231510.4494320071</v>
       </c>
     </row>
     <row r="7">
@@ -5207,28 +5207,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>170.8263915950363</v>
+        <v>183.0220817172654</v>
       </c>
       <c r="AB7" t="n">
-        <v>233.7322053087325</v>
+        <v>250.4188865698334</v>
       </c>
       <c r="AC7" t="n">
-        <v>211.425131679345</v>
+        <v>226.5192595007961</v>
       </c>
       <c r="AD7" t="n">
-        <v>170826.3915950363</v>
+        <v>183022.0817172654</v>
       </c>
       <c r="AE7" t="n">
-        <v>233732.2053087325</v>
+        <v>250418.8865698334</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.849052485851782e-06</v>
+        <v>8.972016650734983e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.134375</v>
       </c>
       <c r="AH7" t="n">
-        <v>211425.131679345</v>
+        <v>226519.2595007961</v>
       </c>
     </row>
     <row r="8">
@@ -5313,28 +5313,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>164.0026413852139</v>
+        <v>176.1983315074429</v>
       </c>
       <c r="AB8" t="n">
-        <v>224.3956492290454</v>
+        <v>241.0823304901463</v>
       </c>
       <c r="AC8" t="n">
-        <v>202.9796434079615</v>
+        <v>218.0737712294126</v>
       </c>
       <c r="AD8" t="n">
-        <v>164002.6413852139</v>
+        <v>176198.3315074429</v>
       </c>
       <c r="AE8" t="n">
-        <v>224395.6492290454</v>
+        <v>241082.3304901463</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.979764932896615e-06</v>
+        <v>9.213868900172648e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.052083333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>202979.6434079615</v>
+        <v>218073.7712294126</v>
       </c>
     </row>
     <row r="9">
@@ -5419,28 +5419,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>146.8389793797611</v>
+        <v>171.1448397525455</v>
       </c>
       <c r="AB9" t="n">
-        <v>200.91156966587</v>
+        <v>234.1679201267774</v>
       </c>
       <c r="AC9" t="n">
-        <v>181.7368514381754</v>
+        <v>211.8192624866855</v>
       </c>
       <c r="AD9" t="n">
-        <v>146838.9793797611</v>
+        <v>171144.8397525455</v>
       </c>
       <c r="AE9" t="n">
-        <v>200911.56966587</v>
+        <v>234167.9201267774</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.068170895964884e-06</v>
+        <v>9.377443077805711e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.997916666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>181736.8514381755</v>
+        <v>211819.2624866855</v>
       </c>
     </row>
     <row r="10">
@@ -5525,28 +5525,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>144.3578112795389</v>
+        <v>168.6636716523232</v>
       </c>
       <c r="AB10" t="n">
-        <v>197.5167260097364</v>
+        <v>230.7730764706439</v>
       </c>
       <c r="AC10" t="n">
-        <v>178.6660068958892</v>
+        <v>208.7484179443992</v>
       </c>
       <c r="AD10" t="n">
-        <v>144357.8112795388</v>
+        <v>168663.6716523232</v>
       </c>
       <c r="AE10" t="n">
-        <v>197516.7260097364</v>
+        <v>230773.0764706439</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.11485391276661e-06</v>
+        <v>9.463818881176307e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>3</v>
+        <v>2.970833333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>178666.0068958892</v>
+        <v>208748.4179443992</v>
       </c>
     </row>
     <row r="11">
@@ -5631,28 +5631,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>140.3971218849229</v>
+        <v>164.7029822577073</v>
       </c>
       <c r="AB11" t="n">
-        <v>192.0975360467415</v>
+        <v>225.353886507649</v>
       </c>
       <c r="AC11" t="n">
-        <v>173.7640168170799</v>
+        <v>203.84642786559</v>
       </c>
       <c r="AD11" t="n">
-        <v>140397.1218849228</v>
+        <v>164702.9822577073</v>
       </c>
       <c r="AE11" t="n">
-        <v>192097.5360467415</v>
+        <v>225353.886507649</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.188379664229329e-06</v>
+        <v>9.599860771484993e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>3</v>
+        <v>2.929166666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>173764.0168170799</v>
+        <v>203846.42786559</v>
       </c>
     </row>
     <row r="12">
@@ -5737,28 +5737,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>139.4580739847343</v>
+        <v>163.7639343575186</v>
       </c>
       <c r="AB12" t="n">
-        <v>190.8126892818346</v>
+        <v>224.0690397427421</v>
       </c>
       <c r="AC12" t="n">
-        <v>172.6017940241215</v>
+        <v>202.6842050726316</v>
       </c>
       <c r="AD12" t="n">
-        <v>139458.0739847342</v>
+        <v>163763.9343575186</v>
       </c>
       <c r="AE12" t="n">
-        <v>190812.6892818346</v>
+        <v>224069.0397427421</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.185024322396704e-06</v>
+        <v>9.59365251061773e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>3</v>
+        <v>2.93125</v>
       </c>
       <c r="AH12" t="n">
-        <v>172601.7940241215</v>
+        <v>202684.2050726316</v>
       </c>
     </row>
     <row r="13">
@@ -5843,28 +5843,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>134.4490599840446</v>
+        <v>158.754920356829</v>
       </c>
       <c r="AB13" t="n">
-        <v>183.9591353439928</v>
+        <v>217.2154858049003</v>
       </c>
       <c r="AC13" t="n">
-        <v>166.4023336550819</v>
+        <v>196.484744703592</v>
       </c>
       <c r="AD13" t="n">
-        <v>134449.0599840446</v>
+        <v>158754.920356829</v>
       </c>
       <c r="AE13" t="n">
-        <v>183959.1353439928</v>
+        <v>217215.4858049004</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.27255497889994e-06</v>
+        <v>9.755607141937595e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>3</v>
+        <v>2.882291666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>166402.3336550819</v>
+        <v>196484.744703592</v>
       </c>
     </row>
     <row r="14">
@@ -5949,28 +5949,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>134.506067686647</v>
+        <v>158.8119280594314</v>
       </c>
       <c r="AB14" t="n">
-        <v>184.0371357976958</v>
+        <v>217.2934862586033</v>
       </c>
       <c r="AC14" t="n">
-        <v>166.4728898549577</v>
+        <v>196.5553009034678</v>
       </c>
       <c r="AD14" t="n">
-        <v>134506.067686647</v>
+        <v>158811.9280594314</v>
       </c>
       <c r="AE14" t="n">
-        <v>184037.1357976958</v>
+        <v>217293.4862586033</v>
       </c>
       <c r="AF14" t="n">
-        <v>5.254173541034261e-06</v>
+        <v>9.721596669360423e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>3</v>
+        <v>2.892708333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>166472.8898549577</v>
+        <v>196555.3009034678</v>
       </c>
     </row>
     <row r="15">
@@ -6055,28 +6055,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>131.953182671163</v>
+        <v>156.2590430439474</v>
       </c>
       <c r="AB15" t="n">
-        <v>180.5441658941741</v>
+        <v>213.8005163550816</v>
       </c>
       <c r="AC15" t="n">
-        <v>163.3132840966129</v>
+        <v>193.3956951451231</v>
       </c>
       <c r="AD15" t="n">
-        <v>131953.182671163</v>
+        <v>156259.0430439474</v>
       </c>
       <c r="AE15" t="n">
-        <v>180544.165894174</v>
+        <v>213800.5163550816</v>
       </c>
       <c r="AF15" t="n">
-        <v>5.277806818290135e-06</v>
+        <v>9.765324419816788e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>3</v>
+        <v>2.879166666666666</v>
       </c>
       <c r="AH15" t="n">
-        <v>163313.2840966129</v>
+        <v>193395.6951451231</v>
       </c>
     </row>
     <row r="16">
@@ -6161,28 +6161,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>130.2051288084368</v>
+        <v>154.5109891812212</v>
       </c>
       <c r="AB16" t="n">
-        <v>178.1524014804996</v>
+        <v>211.4087519414071</v>
       </c>
       <c r="AC16" t="n">
-        <v>161.1497863217164</v>
+        <v>191.2321973702265</v>
       </c>
       <c r="AD16" t="n">
-        <v>130205.1288084368</v>
+        <v>154510.9891812212</v>
       </c>
       <c r="AE16" t="n">
-        <v>178152.4014804996</v>
+        <v>211408.7519414071</v>
       </c>
       <c r="AF16" t="n">
-        <v>5.303044824248568e-06</v>
+        <v>9.812021338514016e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>3</v>
+        <v>2.865625</v>
       </c>
       <c r="AH16" t="n">
-        <v>161149.7863217164</v>
+        <v>191232.1973702265</v>
       </c>
     </row>
     <row r="17">
@@ -6267,28 +6267,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>129.3008745731383</v>
+        <v>153.6067349459227</v>
       </c>
       <c r="AB17" t="n">
-        <v>176.9151609428835</v>
+        <v>210.171511403791</v>
       </c>
       <c r="AC17" t="n">
-        <v>160.030626284532</v>
+        <v>190.1130373330421</v>
       </c>
       <c r="AD17" t="n">
-        <v>129300.8745731383</v>
+        <v>153606.7349459227</v>
       </c>
       <c r="AE17" t="n">
-        <v>176915.1609428835</v>
+        <v>210171.511403791</v>
       </c>
       <c r="AF17" t="n">
-        <v>5.30552485951616e-06</v>
+        <v>9.816610053068079e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>3</v>
+        <v>2.864583333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>160030.626284532</v>
+        <v>190113.0373330421</v>
       </c>
     </row>
     <row r="18">
@@ -6373,28 +6373,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>129.3135225611912</v>
+        <v>153.6193829339756</v>
       </c>
       <c r="AB18" t="n">
-        <v>176.9324664781273</v>
+        <v>210.1888169390348</v>
       </c>
       <c r="AC18" t="n">
-        <v>160.0462802037806</v>
+        <v>190.1286912522907</v>
       </c>
       <c r="AD18" t="n">
-        <v>129313.5225611912</v>
+        <v>153619.3829339756</v>
       </c>
       <c r="AE18" t="n">
-        <v>176932.4664781273</v>
+        <v>210188.8169390348</v>
       </c>
       <c r="AF18" t="n">
-        <v>5.315153231731516e-06</v>
+        <v>9.834425062513265e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>3</v>
+        <v>2.859375</v>
       </c>
       <c r="AH18" t="n">
-        <v>160046.2802037806</v>
+        <v>190128.6912522907</v>
       </c>
     </row>
   </sheetData>
@@ -6670,28 +6670,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>425.3803279447677</v>
+        <v>472.2644947664933</v>
       </c>
       <c r="AB2" t="n">
-        <v>582.024131149631</v>
+        <v>646.173116578577</v>
       </c>
       <c r="AC2" t="n">
-        <v>526.476564948708</v>
+        <v>584.503261241982</v>
       </c>
       <c r="AD2" t="n">
-        <v>425380.3279447677</v>
+        <v>472264.4947664933</v>
       </c>
       <c r="AE2" t="n">
-        <v>582024.131149631</v>
+        <v>646173.1165785771</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.627286184860592e-06</v>
+        <v>5.008012943723074e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.983333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>526476.5649487079</v>
+        <v>584503.261241982</v>
       </c>
     </row>
     <row r="3">
@@ -6776,28 +6776,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>200.7777526423746</v>
+        <v>224.3051769078087</v>
       </c>
       <c r="AB3" t="n">
-        <v>274.7129788544726</v>
+        <v>306.9042386911267</v>
       </c>
       <c r="AC3" t="n">
-        <v>248.4947577147697</v>
+        <v>277.6137288933407</v>
       </c>
       <c r="AD3" t="n">
-        <v>200777.7526423746</v>
+        <v>224305.1769078088</v>
       </c>
       <c r="AE3" t="n">
-        <v>274712.9788544726</v>
+        <v>306904.2386911267</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.171301634186153e-06</v>
+        <v>7.951144681745406e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.76875</v>
       </c>
       <c r="AH3" t="n">
-        <v>248494.7577147697</v>
+        <v>277613.7288933407</v>
       </c>
     </row>
     <row r="4">
@@ -6882,28 +6882,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>179.3972079250688</v>
+        <v>202.7540399899108</v>
       </c>
       <c r="AB4" t="n">
-        <v>245.4591743292073</v>
+        <v>277.4170223910145</v>
       </c>
       <c r="AC4" t="n">
-        <v>222.0328952354139</v>
+        <v>250.9407311313339</v>
       </c>
       <c r="AD4" t="n">
-        <v>179397.2079250688</v>
+        <v>202754.0399899108</v>
       </c>
       <c r="AE4" t="n">
-        <v>245459.1743292073</v>
+        <v>277417.0223910146</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.551608440197337e-06</v>
+        <v>8.676068147664308e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.454166666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>222032.8952354139</v>
+        <v>250940.7311313339</v>
       </c>
     </row>
     <row r="5">
@@ -6988,28 +6988,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>158.4805307387055</v>
+        <v>170.2443323799736</v>
       </c>
       <c r="AB5" t="n">
-        <v>216.8400538241684</v>
+        <v>232.9358062120438</v>
       </c>
       <c r="AC5" t="n">
-        <v>196.1451434241789</v>
+        <v>210.7047397946909</v>
       </c>
       <c r="AD5" t="n">
-        <v>158480.5307387055</v>
+        <v>170244.3323799736</v>
       </c>
       <c r="AE5" t="n">
-        <v>216840.0538241684</v>
+        <v>232935.8062120438</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.965871211030948e-06</v>
+        <v>9.465716923040253e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.165625</v>
       </c>
       <c r="AH5" t="n">
-        <v>196145.1434241789</v>
+        <v>210704.7397946909</v>
       </c>
     </row>
     <row r="6">
@@ -7094,28 +7094,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>153.2477759637607</v>
+        <v>165.0115776050289</v>
       </c>
       <c r="AB6" t="n">
-        <v>209.6803678882446</v>
+        <v>225.7761202761201</v>
       </c>
       <c r="AC6" t="n">
-        <v>189.6687678652951</v>
+        <v>204.2283642358072</v>
       </c>
       <c r="AD6" t="n">
-        <v>153247.7759637607</v>
+        <v>165011.5776050289</v>
       </c>
       <c r="AE6" t="n">
-        <v>209680.3678882446</v>
+        <v>225776.1202761201</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.080717829830356e-06</v>
+        <v>9.684632303026081e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.09375</v>
       </c>
       <c r="AH6" t="n">
-        <v>189668.7678652951</v>
+        <v>204228.3642358072</v>
       </c>
     </row>
     <row r="7">
@@ -7200,28 +7200,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>146.2095788242505</v>
+        <v>157.9733804655186</v>
       </c>
       <c r="AB7" t="n">
-        <v>200.050396058628</v>
+        <v>216.1461484465034</v>
       </c>
       <c r="AC7" t="n">
-        <v>180.9578670313436</v>
+        <v>195.5174634018557</v>
       </c>
       <c r="AD7" t="n">
-        <v>146209.5788242505</v>
+        <v>157973.3804655186</v>
       </c>
       <c r="AE7" t="n">
-        <v>200050.396058628</v>
+        <v>216146.1484465034</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.228614921056928e-06</v>
+        <v>9.966546984216763e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.00625</v>
       </c>
       <c r="AH7" t="n">
-        <v>180957.8670313436</v>
+        <v>195517.4634018557</v>
       </c>
     </row>
     <row r="8">
@@ -7306,28 +7306,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>131.0466450235837</v>
+        <v>154.4887284344463</v>
       </c>
       <c r="AB8" t="n">
-        <v>179.3038010911384</v>
+        <v>211.3782938055949</v>
       </c>
       <c r="AC8" t="n">
-        <v>162.1912979695157</v>
+        <v>191.204646116148</v>
       </c>
       <c r="AD8" t="n">
-        <v>131046.6450235838</v>
+        <v>154488.7284344463</v>
       </c>
       <c r="AE8" t="n">
-        <v>179303.8010911384</v>
+        <v>211378.2938055949</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.287622842148345e-06</v>
+        <v>1.0079025188651e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.972916666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>162191.2979695157</v>
+        <v>191204.646116148</v>
       </c>
     </row>
     <row r="9">
@@ -7412,28 +7412,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>125.8049399885752</v>
+        <v>149.2470233994378</v>
       </c>
       <c r="AB9" t="n">
-        <v>172.1318690145378</v>
+        <v>204.2063617289944</v>
       </c>
       <c r="AC9" t="n">
-        <v>155.7038450244337</v>
+        <v>184.717193171066</v>
       </c>
       <c r="AD9" t="n">
-        <v>125804.9399885752</v>
+        <v>149247.0233994378</v>
       </c>
       <c r="AE9" t="n">
-        <v>172131.8690145378</v>
+        <v>204206.3617289944</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.389641652014837e-06</v>
+        <v>1.027348878506417e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>155703.8450244337</v>
+        <v>184717.193171066</v>
       </c>
     </row>
     <row r="10">
@@ -7518,28 +7518,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>123.4266697871706</v>
+        <v>146.8687531980331</v>
       </c>
       <c r="AB10" t="n">
-        <v>168.8778148031014</v>
+        <v>200.9523075175579</v>
       </c>
       <c r="AC10" t="n">
-        <v>152.760353179842</v>
+        <v>181.7737013264743</v>
       </c>
       <c r="AD10" t="n">
-        <v>123426.6697871706</v>
+        <v>146868.7531980331</v>
       </c>
       <c r="AE10" t="n">
-        <v>168877.8148031014</v>
+        <v>200952.3075175579</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.421032055050681e-06</v>
+        <v>1.033332373780668e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="AH10" t="n">
-        <v>152760.353179842</v>
+        <v>181773.7013264743</v>
       </c>
     </row>
     <row r="11">
@@ -7624,28 +7624,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>118.4448720944501</v>
+        <v>141.8869555053126</v>
       </c>
       <c r="AB11" t="n">
-        <v>162.0614994185218</v>
+        <v>194.1359921329783</v>
       </c>
       <c r="AC11" t="n">
-        <v>146.5945773688058</v>
+        <v>175.607925515438</v>
       </c>
       <c r="AD11" t="n">
-        <v>118444.8720944501</v>
+        <v>141886.9555053127</v>
       </c>
       <c r="AE11" t="n">
-        <v>162061.4994185218</v>
+        <v>194135.9921329783</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.508713901992148e-06</v>
+        <v>1.050045887022687e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>3</v>
+        <v>2.854166666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>146594.5773688058</v>
+        <v>175607.9255154381</v>
       </c>
     </row>
     <row r="12">
@@ -7730,28 +7730,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>118.1778855126145</v>
+        <v>141.619968923477</v>
       </c>
       <c r="AB12" t="n">
-        <v>161.6961965986378</v>
+        <v>193.7706893130944</v>
       </c>
       <c r="AC12" t="n">
-        <v>146.2641385373457</v>
+        <v>175.277486683978</v>
       </c>
       <c r="AD12" t="n">
-        <v>118177.8855126145</v>
+        <v>141619.968923477</v>
       </c>
       <c r="AE12" t="n">
-        <v>161696.1965986378</v>
+        <v>193770.6893130944</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.493924192869492e-06</v>
+        <v>1.047226740210781e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>3</v>
+        <v>2.861458333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>146264.1385373457</v>
+        <v>175277.486683978</v>
       </c>
     </row>
     <row r="13">
@@ -7836,28 +7836,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>118.1297224631642</v>
+        <v>141.5718058740268</v>
       </c>
       <c r="AB13" t="n">
-        <v>161.6302977895762</v>
+        <v>193.7047905040328</v>
       </c>
       <c r="AC13" t="n">
-        <v>146.2045290181313</v>
+        <v>175.2178771647636</v>
       </c>
       <c r="AD13" t="n">
-        <v>118129.7224631642</v>
+        <v>141571.8058740268</v>
       </c>
       <c r="AE13" t="n">
-        <v>161630.2977895762</v>
+        <v>193704.7905040327</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.49362236207107e-06</v>
+        <v>1.047169206602374e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>3</v>
+        <v>2.861458333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>146204.5290181313</v>
+        <v>175217.8771647636</v>
       </c>
     </row>
   </sheetData>
@@ -8133,28 +8133,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>152.4697400190293</v>
+        <v>173.3966250014108</v>
       </c>
       <c r="AB2" t="n">
-        <v>208.6158247841402</v>
+        <v>237.2489120460274</v>
       </c>
       <c r="AC2" t="n">
-        <v>188.7058232609504</v>
+        <v>214.6062088613625</v>
       </c>
       <c r="AD2" t="n">
-        <v>152469.7400190293</v>
+        <v>173396.6250014108</v>
       </c>
       <c r="AE2" t="n">
-        <v>208615.8247841402</v>
+        <v>237248.9120460274</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.56699716604575e-06</v>
+        <v>9.726508767118295e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.840625</v>
       </c>
       <c r="AH2" t="n">
-        <v>188705.8232609504</v>
+        <v>214606.2088613625</v>
       </c>
     </row>
     <row r="3">
@@ -8239,28 +8239,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>115.476516157598</v>
+        <v>125.9400481573398</v>
       </c>
       <c r="AB3" t="n">
-        <v>158.0000638711012</v>
+        <v>172.3167299715932</v>
       </c>
       <c r="AC3" t="n">
-        <v>142.9207595297691</v>
+        <v>155.8710631112017</v>
       </c>
       <c r="AD3" t="n">
-        <v>115476.516157598</v>
+        <v>125940.0481573398</v>
       </c>
       <c r="AE3" t="n">
-        <v>158000.0638711012</v>
+        <v>172316.7299715932</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.576552771150627e-06</v>
+        <v>1.187659800232752e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.145833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>142920.7595297691</v>
+        <v>155871.0631112017</v>
       </c>
     </row>
     <row r="4">
@@ -8345,28 +8345,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>93.56761043718006</v>
+        <v>114.4091545649899</v>
       </c>
       <c r="AB4" t="n">
-        <v>128.0233325117359</v>
+        <v>156.5396526514254</v>
       </c>
       <c r="AC4" t="n">
-        <v>115.8049653387253</v>
+        <v>141.5997279071987</v>
       </c>
       <c r="AD4" t="n">
-        <v>93567.61043718006</v>
+        <v>114409.1545649899</v>
       </c>
       <c r="AE4" t="n">
-        <v>128023.3325117359</v>
+        <v>156539.6526514254</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.915372767392664e-06</v>
+        <v>1.259819592413585e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.965625</v>
       </c>
       <c r="AH4" t="n">
-        <v>115804.9653387253</v>
+        <v>141599.7279071987</v>
       </c>
     </row>
     <row r="5">
@@ -8451,28 +8451,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>90.95238255564752</v>
+        <v>111.7939266834574</v>
       </c>
       <c r="AB5" t="n">
-        <v>124.4450623485135</v>
+        <v>152.9613824882031</v>
       </c>
       <c r="AC5" t="n">
-        <v>112.5682002577461</v>
+        <v>138.3629628262194</v>
       </c>
       <c r="AD5" t="n">
-        <v>90952.38255564752</v>
+        <v>111793.9266834574</v>
       </c>
       <c r="AE5" t="n">
-        <v>124445.0623485135</v>
+        <v>152961.3824882031</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.014728531698231e-06</v>
+        <v>1.280979770041166e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>112568.2002577461</v>
+        <v>138362.9628262194</v>
       </c>
     </row>
   </sheetData>
@@ -8748,28 +8748,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>224.4914255980096</v>
+        <v>246.3497663443894</v>
       </c>
       <c r="AB2" t="n">
-        <v>307.1590723657717</v>
+        <v>337.0666184968889</v>
       </c>
       <c r="AC2" t="n">
-        <v>277.844241599739</v>
+        <v>304.8974535036164</v>
       </c>
       <c r="AD2" t="n">
-        <v>224491.4255980096</v>
+        <v>246349.7663443894</v>
       </c>
       <c r="AE2" t="n">
-        <v>307159.0723657717</v>
+        <v>337066.6184968889</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.78478230336207e-06</v>
+        <v>7.684416594902014e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.434375</v>
       </c>
       <c r="AH2" t="n">
-        <v>277844.2415997389</v>
+        <v>304897.4535036164</v>
       </c>
     </row>
     <row r="3">
@@ -8854,28 +8854,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>139.4499266451366</v>
+        <v>150.4218121998878</v>
       </c>
       <c r="AB3" t="n">
-        <v>190.8015417323618</v>
+        <v>205.8137595937934</v>
       </c>
       <c r="AC3" t="n">
-        <v>172.5917103811248</v>
+        <v>186.1711832396461</v>
       </c>
       <c r="AD3" t="n">
-        <v>139449.9266451366</v>
+        <v>150421.8121998878</v>
       </c>
       <c r="AE3" t="n">
-        <v>190801.5417323618</v>
+        <v>205813.7595937934</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.118872553825667e-06</v>
+        <v>1.039308104058301e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.278125</v>
       </c>
       <c r="AH3" t="n">
-        <v>172591.7103811248</v>
+        <v>186171.1832396461</v>
       </c>
     </row>
     <row r="4">
@@ -8960,28 +8960,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>127.7585014374415</v>
+        <v>138.7303869921927</v>
       </c>
       <c r="AB4" t="n">
-        <v>174.8048179739237</v>
+        <v>189.8170358353553</v>
       </c>
       <c r="AC4" t="n">
-        <v>158.1216914866441</v>
+        <v>171.7011643451656</v>
       </c>
       <c r="AD4" t="n">
-        <v>127758.5014374414</v>
+        <v>138730.3869921927</v>
       </c>
       <c r="AE4" t="n">
-        <v>174804.8179739238</v>
+        <v>189817.0358353553</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.439466636475415e-06</v>
+        <v>1.10439978678871e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.085416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>158121.6914866441</v>
+        <v>171701.1643451655</v>
       </c>
     </row>
     <row r="5">
@@ -9066,28 +9066,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>108.3304745652418</v>
+        <v>130.1887258030706</v>
       </c>
       <c r="AB5" t="n">
-        <v>148.2225345033393</v>
+        <v>178.1299581649081</v>
       </c>
       <c r="AC5" t="n">
-        <v>134.0763838420146</v>
+        <v>161.1294849646656</v>
       </c>
       <c r="AD5" t="n">
-        <v>108330.4745652418</v>
+        <v>130188.7258030706</v>
       </c>
       <c r="AE5" t="n">
-        <v>148222.5345033393</v>
+        <v>178129.9581649081</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.657277289612329e-06</v>
+        <v>1.14862287977942e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.966666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>134076.3838420146</v>
+        <v>161129.4849646655</v>
       </c>
     </row>
     <row r="6">
@@ -9172,28 +9172,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>102.9710968019777</v>
+        <v>124.8293480398064</v>
       </c>
       <c r="AB6" t="n">
-        <v>140.8895974085851</v>
+        <v>170.7970210701538</v>
       </c>
       <c r="AC6" t="n">
-        <v>127.4432919717396</v>
+        <v>154.4963930943905</v>
       </c>
       <c r="AD6" t="n">
-        <v>102971.0968019777</v>
+        <v>124829.3480398064</v>
       </c>
       <c r="AE6" t="n">
-        <v>140889.5974085851</v>
+        <v>170797.0210701539</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.767471436613549e-06</v>
+        <v>1.170996101381229e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.909375</v>
       </c>
       <c r="AH6" t="n">
-        <v>127443.2919717396</v>
+        <v>154496.3930943905</v>
       </c>
     </row>
     <row r="7">
@@ -9278,28 +9278,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>100.7968101825337</v>
+        <v>122.6550614203625</v>
       </c>
       <c r="AB7" t="n">
-        <v>137.9146425331076</v>
+        <v>167.8220661946764</v>
       </c>
       <c r="AC7" t="n">
-        <v>124.7522626142013</v>
+        <v>151.8053637368523</v>
       </c>
       <c r="AD7" t="n">
-        <v>100796.8101825337</v>
+        <v>122655.0614203625</v>
       </c>
       <c r="AE7" t="n">
-        <v>137914.6425331076</v>
+        <v>167822.0661946764</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.823696227992826e-06</v>
+        <v>1.182411677900281e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.88125</v>
       </c>
       <c r="AH7" t="n">
-        <v>124752.2626142013</v>
+        <v>151805.3637368522</v>
       </c>
     </row>
   </sheetData>
@@ -9575,28 +9575,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>117.0860574782918</v>
+        <v>137.0084418716864</v>
       </c>
       <c r="AB2" t="n">
-        <v>160.202309314025</v>
+        <v>187.4609945546225</v>
       </c>
       <c r="AC2" t="n">
-        <v>144.9128257584918</v>
+        <v>169.5699803375404</v>
       </c>
       <c r="AD2" t="n">
-        <v>117086.0574782919</v>
+        <v>137008.4418716864</v>
       </c>
       <c r="AE2" t="n">
-        <v>160202.309314025</v>
+        <v>187460.9945546225</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.25041258401105e-06</v>
+        <v>1.169164329278925e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.469791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>144912.8257584918</v>
+        <v>169569.9803375404</v>
       </c>
     </row>
     <row r="3">
@@ -9681,28 +9681,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>84.05707393455162</v>
+        <v>104.0647096739667</v>
       </c>
       <c r="AB3" t="n">
-        <v>115.0105968935878</v>
+        <v>142.3859267868345</v>
       </c>
       <c r="AC3" t="n">
-        <v>104.03414694448</v>
+        <v>128.7968137742409</v>
       </c>
       <c r="AD3" t="n">
-        <v>84057.07393455162</v>
+        <v>104064.7096739667</v>
       </c>
       <c r="AE3" t="n">
-        <v>115010.5968935878</v>
+        <v>142385.9267868345</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.081523863132319e-06</v>
+        <v>1.354236577537867e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.995833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>104034.14694448</v>
+        <v>128796.8137742409</v>
       </c>
     </row>
     <row r="4">
@@ -9787,28 +9787,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>83.96470936914929</v>
+        <v>103.9723451085644</v>
       </c>
       <c r="AB4" t="n">
-        <v>114.8842196203673</v>
+        <v>142.2595495136141</v>
       </c>
       <c r="AC4" t="n">
-        <v>103.9198309408441</v>
+        <v>128.6824977706049</v>
       </c>
       <c r="AD4" t="n">
-        <v>83964.70936914929</v>
+        <v>103972.3451085644</v>
       </c>
       <c r="AE4" t="n">
-        <v>114884.2196203674</v>
+        <v>142259.5495136141</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.109507407883877e-06</v>
+        <v>1.360467966368135e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.982291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>103919.8309408441</v>
+        <v>128682.4977706049</v>
       </c>
     </row>
   </sheetData>
@@ -10084,28 +10084,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>484.7091631513492</v>
+        <v>520.2556027881042</v>
       </c>
       <c r="AB2" t="n">
-        <v>663.2004608827581</v>
+        <v>711.836667792005</v>
       </c>
       <c r="AC2" t="n">
-        <v>599.9055397037997</v>
+        <v>643.8999752869734</v>
       </c>
       <c r="AD2" t="n">
-        <v>484709.1631513492</v>
+        <v>520255.6027881042</v>
       </c>
       <c r="AE2" t="n">
-        <v>663200.460882758</v>
+        <v>711836.667792005</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.463996667203389e-06</v>
+        <v>4.658835377955903e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.322916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>599905.5397037998</v>
+        <v>643899.9752869734</v>
       </c>
     </row>
     <row r="3">
@@ -10190,28 +10190,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>212.2317866747563</v>
+        <v>235.9862473299396</v>
       </c>
       <c r="AB3" t="n">
-        <v>290.3848935338875</v>
+        <v>322.8867945751349</v>
       </c>
       <c r="AC3" t="n">
-        <v>262.6709668528565</v>
+        <v>292.0709320754423</v>
       </c>
       <c r="AD3" t="n">
-        <v>212231.7866747563</v>
+        <v>235986.2473299396</v>
       </c>
       <c r="AE3" t="n">
-        <v>290384.8935338875</v>
+        <v>322886.7945751349</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.037365100525372e-06</v>
+        <v>7.633703249039126e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.858333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>262670.9668528565</v>
+        <v>292070.9320754423</v>
       </c>
     </row>
     <row r="4">
@@ -10296,28 +10296,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>188.492397691103</v>
+        <v>212.2468583462864</v>
       </c>
       <c r="AB4" t="n">
-        <v>257.9036142185427</v>
+        <v>290.4055152597901</v>
       </c>
       <c r="AC4" t="n">
-        <v>233.2896552475961</v>
+        <v>262.6896204701818</v>
       </c>
       <c r="AD4" t="n">
-        <v>188492.397691103</v>
+        <v>212246.8583462864</v>
       </c>
       <c r="AE4" t="n">
-        <v>257903.6142185426</v>
+        <v>290405.5152597901</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.429959410170829e-06</v>
+        <v>8.376006306224817e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.516666666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>233289.6552475961</v>
+        <v>262689.6204701818</v>
       </c>
     </row>
     <row r="5">
@@ -10402,28 +10402,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>165.5669276673788</v>
+        <v>177.4442475035216</v>
       </c>
       <c r="AB5" t="n">
-        <v>226.5359747317426</v>
+        <v>242.7870477219147</v>
       </c>
       <c r="AC5" t="n">
-        <v>204.9156992486477</v>
+        <v>219.6157926411671</v>
       </c>
       <c r="AD5" t="n">
-        <v>165566.9276673789</v>
+        <v>177444.2475035216</v>
       </c>
       <c r="AE5" t="n">
-        <v>226535.9747317426</v>
+        <v>242787.0477219147</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.852016988006821e-06</v>
+        <v>9.174017440464062e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.210416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>204915.6992486477</v>
+        <v>219615.7926411671</v>
       </c>
     </row>
     <row r="6">
@@ -10508,28 +10508,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>154.7973201486786</v>
+        <v>166.6746399848213</v>
       </c>
       <c r="AB6" t="n">
-        <v>211.8005226031129</v>
+        <v>228.0515955932851</v>
       </c>
       <c r="AC6" t="n">
-        <v>191.5865779898328</v>
+        <v>206.2866713823523</v>
       </c>
       <c r="AD6" t="n">
-        <v>154797.3201486786</v>
+        <v>166674.6399848213</v>
       </c>
       <c r="AE6" t="n">
-        <v>211800.5226031129</v>
+        <v>228051.5955932851</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.0838345803689e-06</v>
+        <v>9.612329721849898e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.064583333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>191586.5779898328</v>
+        <v>206286.6713823523</v>
       </c>
     </row>
     <row r="7">
@@ -10614,28 +10614,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>151.6134011659829</v>
+        <v>163.4907210021256</v>
       </c>
       <c r="AB7" t="n">
-        <v>207.4441441863989</v>
+        <v>223.695217176571</v>
       </c>
       <c r="AC7" t="n">
-        <v>187.6459662149931</v>
+        <v>202.3460596075126</v>
       </c>
       <c r="AD7" t="n">
-        <v>151613.4011659829</v>
+        <v>163490.7210021256</v>
       </c>
       <c r="AE7" t="n">
-        <v>207444.1441863989</v>
+        <v>223695.217176571</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.145752311490126e-06</v>
+        <v>9.729401518297468e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.027083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>187645.9662149931</v>
+        <v>202346.0596075126</v>
       </c>
     </row>
     <row r="8">
@@ -10720,28 +10720,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>133.3406735910168</v>
+        <v>157.0097933916285</v>
       </c>
       <c r="AB8" t="n">
-        <v>182.4425921824964</v>
+        <v>214.8277261015463</v>
       </c>
       <c r="AC8" t="n">
-        <v>165.0305272444364</v>
+        <v>194.3248694350834</v>
       </c>
       <c r="AD8" t="n">
-        <v>133340.6735910168</v>
+        <v>157009.7933916285</v>
       </c>
       <c r="AE8" t="n">
-        <v>182442.5921824964</v>
+        <v>214827.7261015463</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.277663999531e-06</v>
+        <v>9.97881534551186e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.952083333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>165030.5272444364</v>
+        <v>194324.8694350834</v>
       </c>
     </row>
     <row r="9">
@@ -10826,28 +10826,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>132.0270148199832</v>
+        <v>155.6961346205949</v>
       </c>
       <c r="AB9" t="n">
-        <v>180.6451862974343</v>
+        <v>213.0303202164841</v>
       </c>
       <c r="AC9" t="n">
-        <v>163.4046632543691</v>
+        <v>192.6990054450161</v>
       </c>
       <c r="AD9" t="n">
-        <v>132027.0148199832</v>
+        <v>155696.1346205949</v>
       </c>
       <c r="AE9" t="n">
-        <v>180645.1862974343</v>
+        <v>213030.3202164841</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.290526136913669e-06</v>
+        <v>1.000313460757585e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.944791666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>163404.6632543691</v>
+        <v>192699.0054450161</v>
       </c>
     </row>
     <row r="10">
@@ -10932,28 +10932,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>127.8739325959789</v>
+        <v>151.5430523965906</v>
       </c>
       <c r="AB10" t="n">
-        <v>174.9627559774978</v>
+        <v>207.3478898965477</v>
       </c>
       <c r="AC10" t="n">
-        <v>158.2645561088246</v>
+        <v>187.5588982994715</v>
       </c>
       <c r="AD10" t="n">
-        <v>127873.9325959789</v>
+        <v>151543.0523965906</v>
       </c>
       <c r="AE10" t="n">
-        <v>174962.7559774978</v>
+        <v>207347.8898965477</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.368895439105753e-06</v>
+        <v>1.015131243689596e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>3</v>
+        <v>2.902083333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>158264.5561088246</v>
+        <v>187558.8982994715</v>
       </c>
     </row>
     <row r="11">
@@ -11038,28 +11038,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>125.4504591123743</v>
+        <v>149.1195789129861</v>
       </c>
       <c r="AB11" t="n">
-        <v>171.6468526411274</v>
+        <v>204.0319865601773</v>
       </c>
       <c r="AC11" t="n">
-        <v>155.2651179329767</v>
+        <v>184.5594601236237</v>
       </c>
       <c r="AD11" t="n">
-        <v>125450.4591123743</v>
+        <v>149119.5789129861</v>
       </c>
       <c r="AE11" t="n">
-        <v>171646.8526411274</v>
+        <v>204031.9865601773</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.384898330965587e-06</v>
+        <v>1.018157012341744e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>3</v>
+        <v>2.892708333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>155265.1179329767</v>
+        <v>184559.4601236237</v>
       </c>
     </row>
     <row r="12">
@@ -11144,28 +11144,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>123.2815762352496</v>
+        <v>146.9506960358614</v>
       </c>
       <c r="AB12" t="n">
-        <v>168.6792914042875</v>
+        <v>201.0644253233373</v>
       </c>
       <c r="AC12" t="n">
-        <v>152.5807765755814</v>
+        <v>181.8751187662284</v>
       </c>
       <c r="AD12" t="n">
-        <v>123281.5762352496</v>
+        <v>146950.6960358614</v>
       </c>
       <c r="AE12" t="n">
-        <v>168679.2914042874</v>
+        <v>201064.4253233373</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.406883612305733e-06</v>
+        <v>1.022313909461984e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>3</v>
+        <v>2.88125</v>
       </c>
       <c r="AH12" t="n">
-        <v>152580.7765755814</v>
+        <v>181875.1187662284</v>
       </c>
     </row>
     <row r="13">
@@ -11250,28 +11250,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>120.5530342295681</v>
+        <v>144.2221540301799</v>
       </c>
       <c r="AB13" t="n">
-        <v>164.9459798573382</v>
+        <v>197.3311137763881</v>
       </c>
       <c r="AC13" t="n">
-        <v>149.2037670429362</v>
+        <v>178.4981092335831</v>
       </c>
       <c r="AD13" t="n">
-        <v>120553.0342295681</v>
+        <v>144222.1540301799</v>
       </c>
       <c r="AE13" t="n">
-        <v>164945.9798573382</v>
+        <v>197331.1137763881</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.454443608674211e-06</v>
+        <v>1.031306380783319e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>3</v>
+        <v>2.856250000000001</v>
       </c>
       <c r="AH13" t="n">
-        <v>149203.7670429362</v>
+        <v>178498.1092335831</v>
       </c>
     </row>
     <row r="14">
@@ -11356,28 +11356,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>120.7941081700584</v>
+        <v>144.4632279706701</v>
       </c>
       <c r="AB14" t="n">
-        <v>165.2758278581484</v>
+        <v>197.6609617771983</v>
       </c>
       <c r="AC14" t="n">
-        <v>149.5021348134938</v>
+        <v>178.7964770041407</v>
       </c>
       <c r="AD14" t="n">
-        <v>120794.1081700584</v>
+        <v>144463.2279706701</v>
       </c>
       <c r="AE14" t="n">
-        <v>165275.8278581484</v>
+        <v>197660.9617771983</v>
       </c>
       <c r="AF14" t="n">
-        <v>5.451153294460039e-06</v>
+        <v>1.030684260125868e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>3</v>
+        <v>2.858333333333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>149502.1348134938</v>
+        <v>178796.4770041407</v>
       </c>
     </row>
   </sheetData>
@@ -11653,28 +11653,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.498893202993</v>
+        <v>109.2985716963427</v>
       </c>
       <c r="AB2" t="n">
-        <v>136.138775261645</v>
+        <v>149.547127707542</v>
       </c>
       <c r="AC2" t="n">
-        <v>123.1458816226811</v>
+        <v>135.2745597298868</v>
       </c>
       <c r="AD2" t="n">
-        <v>99498.893202993</v>
+        <v>109298.5716963427</v>
       </c>
       <c r="AE2" t="n">
-        <v>136138.775261645</v>
+        <v>149547.127707542</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.697500377714275e-06</v>
+        <v>1.306189991371538e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.271875</v>
       </c>
       <c r="AH2" t="n">
-        <v>123145.8816226811</v>
+        <v>135274.5597298869</v>
       </c>
     </row>
     <row r="3">
@@ -11759,28 +11759,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>89.54075326983018</v>
+        <v>99.34043176317986</v>
       </c>
       <c r="AB3" t="n">
-        <v>122.5136088829704</v>
+        <v>135.9219613288674</v>
       </c>
       <c r="AC3" t="n">
-        <v>110.8210820001418</v>
+        <v>122.9497601073475</v>
       </c>
       <c r="AD3" t="n">
-        <v>89540.75326983018</v>
+        <v>99340.43176317986</v>
       </c>
       <c r="AE3" t="n">
-        <v>122513.6088829704</v>
+        <v>135921.9613288674</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.123846378584953e-06</v>
+        <v>1.403932657853287e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.044791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>110821.0820001418</v>
+        <v>122949.7601073475</v>
       </c>
     </row>
   </sheetData>
@@ -12056,28 +12056,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>314.6987435966242</v>
+        <v>337.4894144384892</v>
       </c>
       <c r="AB2" t="n">
-        <v>430.5847045176196</v>
+        <v>461.7679058168955</v>
       </c>
       <c r="AC2" t="n">
-        <v>389.4903046478855</v>
+        <v>417.6974249810564</v>
       </c>
       <c r="AD2" t="n">
-        <v>314698.7435966242</v>
+        <v>337489.4144384892</v>
       </c>
       <c r="AE2" t="n">
-        <v>430584.7045176196</v>
+        <v>461767.9058168955</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.162192517504017e-06</v>
+        <v>6.197853633015414e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.121875</v>
       </c>
       <c r="AH2" t="n">
-        <v>389490.3046478855</v>
+        <v>417697.4249810564</v>
       </c>
     </row>
     <row r="3">
@@ -12162,28 +12162,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>169.896872259311</v>
+        <v>192.6874535926247</v>
       </c>
       <c r="AB3" t="n">
-        <v>232.4603959460948</v>
+        <v>263.6434747758063</v>
       </c>
       <c r="AC3" t="n">
-        <v>210.2747020172814</v>
+        <v>238.4817115692212</v>
       </c>
       <c r="AD3" t="n">
-        <v>169896.872259311</v>
+        <v>192687.4535926247</v>
       </c>
       <c r="AE3" t="n">
-        <v>232460.3959460948</v>
+        <v>263643.4747758063</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.58880983314051e-06</v>
+        <v>8.994003855905537e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.529166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>210274.7020172814</v>
+        <v>238481.7115692212</v>
       </c>
     </row>
     <row r="4">
@@ -12268,28 +12268,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>150.4200162510766</v>
+        <v>161.8153964262845</v>
       </c>
       <c r="AB4" t="n">
-        <v>205.8113022973982</v>
+        <v>221.4029641818023</v>
       </c>
       <c r="AC4" t="n">
-        <v>186.1689604641701</v>
+        <v>200.2725760213665</v>
       </c>
       <c r="AD4" t="n">
-        <v>150420.0162510766</v>
+        <v>161815.3964262845</v>
       </c>
       <c r="AE4" t="n">
-        <v>205811.3022973982</v>
+        <v>221402.9641818023</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.020760013286361e-06</v>
+        <v>9.840620239468344e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.226041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>186168.9604641701</v>
+        <v>200272.5760213665</v>
       </c>
     </row>
     <row r="5">
@@ -12374,28 +12374,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>138.3563633355467</v>
+        <v>149.7517435107546</v>
       </c>
       <c r="AB5" t="n">
-        <v>189.3052801675733</v>
+        <v>204.8969420519774</v>
       </c>
       <c r="AC5" t="n">
-        <v>171.2382499200629</v>
+        <v>185.3418654772593</v>
       </c>
       <c r="AD5" t="n">
-        <v>138356.3633355467</v>
+        <v>149751.7435107545</v>
       </c>
       <c r="AE5" t="n">
-        <v>189305.2801675733</v>
+        <v>204896.9420519774</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.315723833205971e-06</v>
+        <v>1.04187452501302e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.046875</v>
       </c>
       <c r="AH5" t="n">
-        <v>171238.2499200629</v>
+        <v>185341.8654772594</v>
       </c>
     </row>
     <row r="6">
@@ -12480,28 +12480,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>121.5549899613096</v>
+        <v>144.2602304400516</v>
       </c>
       <c r="AB6" t="n">
-        <v>166.3168998926733</v>
+        <v>197.3832116001872</v>
       </c>
       <c r="AC6" t="n">
-        <v>150.4438483941977</v>
+        <v>178.5452349141987</v>
       </c>
       <c r="AD6" t="n">
-        <v>121554.9899613096</v>
+        <v>144260.2304400516</v>
       </c>
       <c r="AE6" t="n">
-        <v>166316.8998926734</v>
+        <v>197383.2116001872</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.434673396853047e-06</v>
+        <v>1.065188475100333e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.980208333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>150443.8483941977</v>
+        <v>178545.2349141987</v>
       </c>
     </row>
     <row r="7">
@@ -12586,28 +12586,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>118.5564112439601</v>
+        <v>141.2616517227022</v>
       </c>
       <c r="AB7" t="n">
-        <v>162.2141122036413</v>
+        <v>193.2804239111553</v>
       </c>
       <c r="AC7" t="n">
-        <v>146.7326250039069</v>
+        <v>174.8340115239079</v>
       </c>
       <c r="AD7" t="n">
-        <v>118556.4112439601</v>
+        <v>141261.6517227022</v>
       </c>
       <c r="AE7" t="n">
-        <v>162214.1122036414</v>
+        <v>193280.4239111553</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.475411678781849e-06</v>
+        <v>1.073173122058341e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.958333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>146732.625003907</v>
+        <v>174834.0115239079</v>
       </c>
     </row>
     <row r="8">
@@ -12692,28 +12692,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>112.2836785368475</v>
+        <v>134.9889190155896</v>
       </c>
       <c r="AB8" t="n">
-        <v>153.631482580338</v>
+        <v>184.6977942878518</v>
       </c>
       <c r="AC8" t="n">
-        <v>138.9691095060526</v>
+        <v>167.0704960260535</v>
       </c>
       <c r="AD8" t="n">
-        <v>112283.6785368475</v>
+        <v>134988.9190155896</v>
       </c>
       <c r="AE8" t="n">
-        <v>153631.482580338</v>
+        <v>184697.7942878518</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.612864507885136e-06</v>
+        <v>1.10011368660368e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.885416666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>138969.1095060526</v>
+        <v>167070.4960260535</v>
       </c>
     </row>
     <row r="9">
@@ -12798,28 +12798,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>109.1609793618751</v>
+        <v>131.8662198406172</v>
       </c>
       <c r="AB9" t="n">
-        <v>149.3588678053782</v>
+        <v>180.425179512892</v>
       </c>
       <c r="AC9" t="n">
-        <v>135.1042670885611</v>
+        <v>163.205653608562</v>
       </c>
       <c r="AD9" t="n">
-        <v>109160.9793618751</v>
+        <v>131866.2198406172</v>
       </c>
       <c r="AE9" t="n">
-        <v>149358.8678053782</v>
+        <v>180425.179512892</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.663087656980569e-06</v>
+        <v>1.109957354418323e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.860416666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>135104.2670885611</v>
+        <v>163205.653608562</v>
       </c>
     </row>
     <row r="10">
@@ -12904,28 +12904,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>109.6144384411325</v>
+        <v>132.3196789198745</v>
       </c>
       <c r="AB10" t="n">
-        <v>149.9793105228205</v>
+        <v>181.0456222303343</v>
       </c>
       <c r="AC10" t="n">
-        <v>135.6654956238477</v>
+        <v>163.7668821438487</v>
       </c>
       <c r="AD10" t="n">
-        <v>109614.4384411325</v>
+        <v>132319.6789198745</v>
       </c>
       <c r="AE10" t="n">
-        <v>149979.3105228205</v>
+        <v>181045.6222303344</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.656712582327587e-06</v>
+        <v>1.10870784859665e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>3</v>
+        <v>2.863541666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>135665.4956238477</v>
+        <v>163766.8821438487</v>
       </c>
     </row>
   </sheetData>
@@ -13201,28 +13201,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>384.231682541556</v>
+        <v>419.1693143395697</v>
       </c>
       <c r="AB2" t="n">
-        <v>525.7227391588425</v>
+        <v>573.5259483244175</v>
       </c>
       <c r="AC2" t="n">
-        <v>475.5484987900205</v>
+        <v>518.7894367650584</v>
       </c>
       <c r="AD2" t="n">
-        <v>384231.682541556</v>
+        <v>419169.3143395697</v>
       </c>
       <c r="AE2" t="n">
-        <v>525722.7391588425</v>
+        <v>573525.9483244176</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.795906188485495e-06</v>
+        <v>5.375697443453047e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.676041666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>475548.4987900205</v>
+        <v>518789.4367650585</v>
       </c>
     </row>
     <row r="3">
@@ -13307,28 +13307,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>190.3948554044445</v>
+        <v>213.6866099364534</v>
       </c>
       <c r="AB3" t="n">
-        <v>260.5066407924459</v>
+        <v>292.3754469028129</v>
       </c>
       <c r="AC3" t="n">
-        <v>235.6442526186576</v>
+        <v>264.4715446020116</v>
       </c>
       <c r="AD3" t="n">
-        <v>190394.8554044445</v>
+        <v>213686.6099364533</v>
       </c>
       <c r="AE3" t="n">
-        <v>260506.6407924459</v>
+        <v>292375.4469028129</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.299894085866098e-06</v>
+        <v>8.267419607891172e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.690625</v>
       </c>
       <c r="AH3" t="n">
-        <v>235644.2526186576</v>
+        <v>264471.5446020116</v>
       </c>
     </row>
     <row r="4">
@@ -13413,28 +13413,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>167.8505194189894</v>
+        <v>190.9716817504061</v>
       </c>
       <c r="AB4" t="n">
-        <v>229.6604857112525</v>
+        <v>261.2958800467725</v>
       </c>
       <c r="AC4" t="n">
-        <v>207.7420112855529</v>
+        <v>236.3581679862558</v>
       </c>
       <c r="AD4" t="n">
-        <v>167850.5194189895</v>
+        <v>190971.6817504061</v>
       </c>
       <c r="AE4" t="n">
-        <v>229660.4857112525</v>
+        <v>261295.8800467725</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.727994368649677e-06</v>
+        <v>9.090529340677956e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.35625</v>
       </c>
       <c r="AH4" t="n">
-        <v>207742.0112855529</v>
+        <v>236358.1679862558</v>
       </c>
     </row>
     <row r="5">
@@ -13519,28 +13519,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>152.3952392376272</v>
+        <v>164.0412060121827</v>
       </c>
       <c r="AB5" t="n">
-        <v>208.5138895282834</v>
+        <v>224.4484150530153</v>
       </c>
       <c r="AC5" t="n">
-        <v>188.6136165628455</v>
+        <v>203.0273733357491</v>
       </c>
       <c r="AD5" t="n">
-        <v>152395.2392376272</v>
+        <v>164041.2060121827</v>
       </c>
       <c r="AE5" t="n">
-        <v>208513.8895282834</v>
+        <v>224448.4150530153</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.060571919296137e-06</v>
+        <v>9.729977222056443e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.135416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>188613.6165628455</v>
+        <v>203027.3733357491</v>
       </c>
     </row>
     <row r="6">
@@ -13625,28 +13625,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>147.1769393009199</v>
+        <v>158.8229060754753</v>
       </c>
       <c r="AB6" t="n">
-        <v>201.3739813397386</v>
+        <v>217.3085068644704</v>
       </c>
       <c r="AC6" t="n">
-        <v>182.1551311908891</v>
+        <v>196.5688879637926</v>
       </c>
       <c r="AD6" t="n">
-        <v>147176.9393009199</v>
+        <v>158822.9060754753</v>
       </c>
       <c r="AE6" t="n">
-        <v>201373.9813397386</v>
+        <v>217308.5068644704</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.17483356060848e-06</v>
+        <v>9.949668431874981e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.066666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>182155.131190889</v>
+        <v>196568.8879637926</v>
       </c>
     </row>
     <row r="7">
@@ -13731,28 +13731,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>128.5946053104415</v>
+        <v>151.8010189878788</v>
       </c>
       <c r="AB7" t="n">
-        <v>175.9488121792614</v>
+        <v>207.7008511674308</v>
       </c>
       <c r="AC7" t="n">
-        <v>159.1565044906307</v>
+        <v>187.8781734420459</v>
       </c>
       <c r="AD7" t="n">
-        <v>128594.6053104415</v>
+        <v>151801.0189878787</v>
       </c>
       <c r="AE7" t="n">
-        <v>175948.8121792614</v>
+        <v>207700.8511674308</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.329924695083101e-06</v>
+        <v>1.024786263400201e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.977083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>159156.5044906307</v>
+        <v>187878.1734420459</v>
       </c>
     </row>
     <row r="8">
@@ -13837,28 +13837,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>124.3505898654195</v>
+        <v>147.5570035428567</v>
       </c>
       <c r="AB8" t="n">
-        <v>170.141963014638</v>
+        <v>201.8940020028073</v>
       </c>
       <c r="AC8" t="n">
-        <v>153.9038528603131</v>
+        <v>182.6255218117282</v>
       </c>
       <c r="AD8" t="n">
-        <v>124350.5898654195</v>
+        <v>147557.0035428567</v>
       </c>
       <c r="AE8" t="n">
-        <v>170141.963014638</v>
+        <v>201894.0020028073</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.410669588277156e-06</v>
+        <v>1.040311108894044e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.933333333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>153903.8528603131</v>
+        <v>182625.5218117282</v>
       </c>
     </row>
     <row r="9">
@@ -13943,28 +13943,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>119.7689177911759</v>
+        <v>142.9753314686131</v>
       </c>
       <c r="AB9" t="n">
-        <v>163.8731171535546</v>
+        <v>195.625156141724</v>
       </c>
       <c r="AC9" t="n">
-        <v>148.2332968498291</v>
+        <v>176.9549658012443</v>
       </c>
       <c r="AD9" t="n">
-        <v>119768.9177911759</v>
+        <v>142975.3314686131</v>
       </c>
       <c r="AE9" t="n">
-        <v>163873.1171535546</v>
+        <v>195625.156141724</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.500860110486366e-06</v>
+        <v>1.057652068389054e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.885416666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>148233.2968498291</v>
+        <v>176954.9658012443</v>
       </c>
     </row>
     <row r="10">
@@ -14049,28 +14049,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>117.3054252534863</v>
+        <v>140.5118389309235</v>
       </c>
       <c r="AB10" t="n">
-        <v>160.5024579818691</v>
+        <v>192.2544969700384</v>
       </c>
       <c r="AC10" t="n">
-        <v>145.1843286587383</v>
+        <v>173.9059976101535</v>
       </c>
       <c r="AD10" t="n">
-        <v>117305.4252534863</v>
+        <v>140511.8389309235</v>
       </c>
       <c r="AE10" t="n">
-        <v>160502.4579818691</v>
+        <v>192254.4969700385</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.51274332118285e-06</v>
+        <v>1.059936856971167e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>3</v>
+        <v>2.879166666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>145184.3286587383</v>
+        <v>173905.9976101535</v>
       </c>
     </row>
     <row r="11">
@@ -14155,28 +14155,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>115.2575078938676</v>
+        <v>138.4639215713048</v>
       </c>
       <c r="AB11" t="n">
-        <v>157.7004071027027</v>
+        <v>189.4524460908721</v>
       </c>
       <c r="AC11" t="n">
-        <v>142.6497015827756</v>
+        <v>171.3713705341907</v>
       </c>
       <c r="AD11" t="n">
-        <v>115257.5078938676</v>
+        <v>138463.9215713048</v>
       </c>
       <c r="AE11" t="n">
-        <v>157700.4071027027</v>
+        <v>189452.4460908721</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.542451347924058e-06</v>
+        <v>1.065648828426448e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>3</v>
+        <v>2.863541666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>142649.7015827756</v>
+        <v>171371.3705341907</v>
       </c>
     </row>
     <row r="12">
@@ -14261,28 +14261,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>115.5913347726872</v>
+        <v>138.7977484501244</v>
       </c>
       <c r="AB12" t="n">
-        <v>158.1571637657059</v>
+        <v>189.9092027538752</v>
       </c>
       <c r="AC12" t="n">
-        <v>143.0628660309239</v>
+        <v>171.784534982339</v>
       </c>
       <c r="AD12" t="n">
-        <v>115591.3347726872</v>
+        <v>138797.7484501244</v>
       </c>
       <c r="AE12" t="n">
-        <v>158157.1637657059</v>
+        <v>189909.2027538752</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.541232557083394e-06</v>
+        <v>1.065414491135975e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>3</v>
+        <v>2.863541666666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>143062.8660309239</v>
+        <v>171784.534982339</v>
       </c>
     </row>
   </sheetData>
@@ -14558,28 +14558,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>616.2152991481416</v>
+        <v>652.4939549748016</v>
       </c>
       <c r="AB2" t="n">
-        <v>843.1329577948304</v>
+        <v>892.7710151982035</v>
       </c>
       <c r="AC2" t="n">
-        <v>762.6655316474294</v>
+        <v>807.5662025196756</v>
       </c>
       <c r="AD2" t="n">
-        <v>616215.2991481416</v>
+        <v>652493.9549748015</v>
       </c>
       <c r="AE2" t="n">
-        <v>843132.9577948304</v>
+        <v>892771.0151982035</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.153115366216982e-06</v>
+        <v>4.011090621160742e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.114583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>762665.5316474293</v>
+        <v>807566.2025196756</v>
       </c>
     </row>
     <row r="3">
@@ -14664,28 +14664,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>248.23800299758</v>
+        <v>272.3384625303015</v>
       </c>
       <c r="AB3" t="n">
-        <v>339.6501871889049</v>
+        <v>372.6254991589698</v>
       </c>
       <c r="AC3" t="n">
-        <v>307.2344500257286</v>
+        <v>337.0626445024097</v>
       </c>
       <c r="AD3" t="n">
-        <v>248238.00299758</v>
+        <v>272338.4625303015</v>
       </c>
       <c r="AE3" t="n">
-        <v>339650.1871889048</v>
+        <v>372625.4991589698</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.792435821249554e-06</v>
+        <v>7.065020292291732e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.039583333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>307234.4500257286</v>
+        <v>337062.6445024097</v>
       </c>
     </row>
     <row r="4">
@@ -14770,28 +14770,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>191.5642656003041</v>
+        <v>215.5793842784506</v>
       </c>
       <c r="AB4" t="n">
-        <v>262.106679413157</v>
+        <v>294.9652242608429</v>
       </c>
       <c r="AC4" t="n">
-        <v>237.0915857990768</v>
+        <v>266.8141572437674</v>
       </c>
       <c r="AD4" t="n">
-        <v>191564.2656003041</v>
+        <v>215579.3842784507</v>
       </c>
       <c r="AE4" t="n">
-        <v>262106.679413157</v>
+        <v>294965.224260843</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.415342302010046e-06</v>
+        <v>8.225447820719331e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.46875</v>
       </c>
       <c r="AH4" t="n">
-        <v>237091.5857990768</v>
+        <v>266814.1572437674</v>
       </c>
     </row>
     <row r="5">
@@ -14876,28 +14876,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>178.9817329957866</v>
+        <v>191.074677943707</v>
       </c>
       <c r="AB5" t="n">
-        <v>244.8907032015033</v>
+        <v>261.4368039823181</v>
       </c>
       <c r="AC5" t="n">
-        <v>221.5186781942836</v>
+        <v>236.4856423391809</v>
       </c>
       <c r="AD5" t="n">
-        <v>178981.7329957866</v>
+        <v>191074.677943707</v>
       </c>
       <c r="AE5" t="n">
-        <v>244890.7032015033</v>
+        <v>261436.8039823181</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.656799441152806e-06</v>
+        <v>8.675264157281682e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.289583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>221518.6781942836</v>
+        <v>236485.6423391809</v>
       </c>
     </row>
     <row r="6">
@@ -14982,28 +14982,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>168.5608502878465</v>
+        <v>180.6537952357669</v>
       </c>
       <c r="AB6" t="n">
-        <v>230.6323917436085</v>
+        <v>247.1784925244232</v>
       </c>
       <c r="AC6" t="n">
-        <v>208.6211599702598</v>
+        <v>223.5881241151571</v>
       </c>
       <c r="AD6" t="n">
-        <v>168560.8502878465</v>
+        <v>180653.7952357669</v>
       </c>
       <c r="AE6" t="n">
-        <v>230632.3917436085</v>
+        <v>247178.4925244232</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.858699960058414e-06</v>
+        <v>9.05138951057042e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.153125</v>
       </c>
       <c r="AH6" t="n">
-        <v>208621.1599702598</v>
+        <v>223588.1241151571</v>
       </c>
     </row>
     <row r="7">
@@ -15088,28 +15088,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>164.6547121073974</v>
+        <v>176.7476570553179</v>
       </c>
       <c r="AB7" t="n">
-        <v>225.2878411584664</v>
+        <v>241.8339419392811</v>
       </c>
       <c r="AC7" t="n">
-        <v>203.7866857918381</v>
+        <v>218.7536499367355</v>
       </c>
       <c r="AD7" t="n">
-        <v>164654.7121073974</v>
+        <v>176747.6570553179</v>
       </c>
       <c r="AE7" t="n">
-        <v>225287.8411584664</v>
+        <v>241833.9419392812</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.941489466354013e-06</v>
+        <v>9.205620081511104e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="AH7" t="n">
-        <v>203786.6857918381</v>
+        <v>218753.6499367355</v>
       </c>
     </row>
     <row r="8">
@@ -15194,28 +15194,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>157.9990181078134</v>
+        <v>170.0919630557338</v>
       </c>
       <c r="AB8" t="n">
-        <v>216.181226999744</v>
+        <v>232.7273277805588</v>
       </c>
       <c r="AC8" t="n">
-        <v>195.5491941072081</v>
+        <v>210.5161582521055</v>
       </c>
       <c r="AD8" t="n">
-        <v>157999.0181078134</v>
+        <v>170091.9630557338</v>
       </c>
       <c r="AE8" t="n">
-        <v>216181.226999744</v>
+        <v>232727.3277805588</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.073246833389283e-06</v>
+        <v>9.451074062972655e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.019791666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>195549.1941072081</v>
+        <v>210516.1582521055</v>
       </c>
     </row>
     <row r="9">
@@ -15300,28 +15300,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>143.4433766659231</v>
+        <v>167.5437466900902</v>
       </c>
       <c r="AB9" t="n">
-        <v>196.26555622938</v>
+        <v>229.2407457297151</v>
       </c>
       <c r="AC9" t="n">
-        <v>177.5342470033418</v>
+        <v>207.3623306987445</v>
       </c>
       <c r="AD9" t="n">
-        <v>143443.3766659231</v>
+        <v>167543.7466900902</v>
       </c>
       <c r="AE9" t="n">
-        <v>196265.55622938</v>
+        <v>229240.7457297151</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.110303592867952e-06</v>
+        <v>9.520107995258715e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.997916666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>177534.2470033418</v>
+        <v>207362.3306987445</v>
       </c>
     </row>
     <row r="10">
@@ -15406,28 +15406,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>139.2533186449244</v>
+        <v>163.3536886690916</v>
       </c>
       <c r="AB10" t="n">
-        <v>190.5325339927389</v>
+        <v>223.507723493074</v>
       </c>
       <c r="AC10" t="n">
-        <v>172.3483763626166</v>
+        <v>202.1764600580194</v>
       </c>
       <c r="AD10" t="n">
-        <v>139253.3186449244</v>
+        <v>163353.6886690916</v>
       </c>
       <c r="AE10" t="n">
-        <v>190532.5339927389</v>
+        <v>223507.723493074</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.188387478912292e-06</v>
+        <v>9.665572352575773e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>3</v>
+        <v>2.952083333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>172348.3763626166</v>
+        <v>202176.4600580194</v>
       </c>
     </row>
     <row r="11">
@@ -15512,28 +15512,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>137.3844739404051</v>
+        <v>161.4848439645722</v>
       </c>
       <c r="AB11" t="n">
-        <v>187.9754982204072</v>
+        <v>220.9506877207424</v>
       </c>
       <c r="AC11" t="n">
-        <v>170.0353804955732</v>
+        <v>199.8634641909761</v>
       </c>
       <c r="AD11" t="n">
-        <v>137384.4739404051</v>
+        <v>161484.8439645722</v>
       </c>
       <c r="AE11" t="n">
-        <v>187975.4982204072</v>
+        <v>220950.6877207424</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.210886225738626e-06</v>
+        <v>9.707485811463739e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>3</v>
+        <v>2.939583333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>170035.3804955732</v>
+        <v>199863.4641909761</v>
       </c>
     </row>
     <row r="12">
@@ -15618,28 +15618,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>133.4659594636641</v>
+        <v>157.5663294878312</v>
       </c>
       <c r="AB12" t="n">
-        <v>182.6140138406749</v>
+        <v>215.5892033410101</v>
       </c>
       <c r="AC12" t="n">
-        <v>165.1855886601503</v>
+        <v>195.0136723555531</v>
       </c>
       <c r="AD12" t="n">
-        <v>133465.9594636641</v>
+        <v>157566.3294878312</v>
       </c>
       <c r="AE12" t="n">
-        <v>182614.0138406749</v>
+        <v>215589.2033410101</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.266471364956631e-06</v>
+        <v>9.811036709892829e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>3</v>
+        <v>2.908333333333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>165185.5886601503</v>
+        <v>195013.6723555531</v>
       </c>
     </row>
     <row r="13">
@@ -15724,28 +15724,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>132.0944582125102</v>
+        <v>156.1948282366774</v>
       </c>
       <c r="AB13" t="n">
-        <v>180.7374653224822</v>
+        <v>213.7126548228174</v>
       </c>
       <c r="AC13" t="n">
-        <v>163.4881352987809</v>
+        <v>193.3162189941837</v>
       </c>
       <c r="AD13" t="n">
-        <v>132094.4582125102</v>
+        <v>156194.8282366774</v>
       </c>
       <c r="AE13" t="n">
-        <v>180737.4653224822</v>
+        <v>213712.6548228174</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.281911681406076e-06</v>
+        <v>9.839800848345356e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="AH13" t="n">
-        <v>163488.135298781</v>
+        <v>193316.2189941837</v>
       </c>
     </row>
     <row r="14">
@@ -15830,28 +15830,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>128.80269922113</v>
+        <v>152.9030692452971</v>
       </c>
       <c r="AB14" t="n">
-        <v>176.2335354483207</v>
+        <v>209.2087249486558</v>
       </c>
       <c r="AC14" t="n">
-        <v>159.4140541705027</v>
+        <v>189.2421378659054</v>
       </c>
       <c r="AD14" t="n">
-        <v>128802.69922113</v>
+        <v>152903.0692452971</v>
       </c>
       <c r="AE14" t="n">
-        <v>176233.5354483207</v>
+        <v>209208.7249486558</v>
       </c>
       <c r="AF14" t="n">
-        <v>5.330732491512895e-06</v>
+        <v>9.930750314690485e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>3</v>
+        <v>2.873958333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>159414.0541705026</v>
+        <v>189242.1378659054</v>
       </c>
     </row>
     <row r="15">
@@ -15936,28 +15936,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>127.3442947316506</v>
+        <v>151.4446647558177</v>
       </c>
       <c r="AB15" t="n">
-        <v>174.2380820855508</v>
+        <v>207.2132715858859</v>
       </c>
       <c r="AC15" t="n">
-        <v>157.6090440760385</v>
+        <v>187.4371277714413</v>
       </c>
       <c r="AD15" t="n">
-        <v>127344.2947316506</v>
+        <v>151444.6647558177</v>
       </c>
       <c r="AE15" t="n">
-        <v>174238.0820855508</v>
+        <v>207213.2715858859</v>
       </c>
       <c r="AF15" t="n">
-        <v>5.335438111764155e-06</v>
+        <v>9.93951652831411e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>3</v>
+        <v>2.870833333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>157609.0440760385</v>
+        <v>187437.1277714412</v>
       </c>
     </row>
     <row r="16">
@@ -16042,28 +16042,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>126.5708423997325</v>
+        <v>150.6712124238996</v>
       </c>
       <c r="AB16" t="n">
-        <v>173.1798104827123</v>
+        <v>206.1549999830474</v>
       </c>
       <c r="AC16" t="n">
-        <v>156.651772429681</v>
+        <v>186.4798561250838</v>
       </c>
       <c r="AD16" t="n">
-        <v>126570.8423997325</v>
+        <v>150671.2124238996</v>
       </c>
       <c r="AE16" t="n">
-        <v>173179.8104827123</v>
+        <v>206154.9999830474</v>
       </c>
       <c r="AF16" t="n">
-        <v>5.352937137073526e-06</v>
+        <v>9.972115885226972e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>3</v>
+        <v>2.861458333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>156651.772429681</v>
+        <v>186479.8561250838</v>
       </c>
     </row>
     <row r="17">
@@ -16148,28 +16148,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>126.9609950721726</v>
+        <v>151.0613650963397</v>
       </c>
       <c r="AB17" t="n">
-        <v>173.7136345814656</v>
+        <v>206.6888240818008</v>
       </c>
       <c r="AC17" t="n">
-        <v>157.1346491056764</v>
+        <v>186.9627328010792</v>
       </c>
       <c r="AD17" t="n">
-        <v>126960.9950721725</v>
+        <v>151061.3650963397</v>
       </c>
       <c r="AE17" t="n">
-        <v>173713.6345814657</v>
+        <v>206688.8240818008</v>
       </c>
       <c r="AF17" t="n">
-        <v>5.354554694034897e-06</v>
+        <v>9.975129271160095e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>3</v>
+        <v>2.860416666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>157134.6491056764</v>
+        <v>186962.7328010792</v>
       </c>
     </row>
   </sheetData>
@@ -16445,28 +16445,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>248.8748571633229</v>
+        <v>282.1509667760815</v>
       </c>
       <c r="AB2" t="n">
-        <v>340.5215591544967</v>
+        <v>386.0514003651809</v>
       </c>
       <c r="AC2" t="n">
-        <v>308.0226594739029</v>
+        <v>349.2071965408707</v>
       </c>
       <c r="AD2" t="n">
-        <v>248874.8571633229</v>
+        <v>282150.9667760815</v>
       </c>
       <c r="AE2" t="n">
-        <v>340521.5591544967</v>
+        <v>386051.4003651809</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.558760326036831e-06</v>
+        <v>7.133525660492929e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.65625</v>
       </c>
       <c r="AH2" t="n">
-        <v>308022.659473903</v>
+        <v>349207.1965408706</v>
       </c>
     </row>
     <row r="3">
@@ -16551,28 +16551,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>147.32618423227</v>
+        <v>169.3965590098956</v>
       </c>
       <c r="AB3" t="n">
-        <v>201.5781848390334</v>
+        <v>231.7758452859822</v>
       </c>
       <c r="AC3" t="n">
-        <v>182.3398457948126</v>
+        <v>209.6554839113968</v>
       </c>
       <c r="AD3" t="n">
-        <v>147326.18423227</v>
+        <v>169396.5590098955</v>
       </c>
       <c r="AE3" t="n">
-        <v>201578.1848390334</v>
+        <v>231775.8452859822</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.977491867726435e-06</v>
+        <v>9.977369283214249e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.329166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>182339.8457948126</v>
+        <v>209655.4839113968</v>
       </c>
     </row>
     <row r="4">
@@ -16657,28 +16657,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>135.2019822890672</v>
+        <v>146.3225552867271</v>
       </c>
       <c r="AB4" t="n">
-        <v>184.989316858312</v>
+        <v>200.2049754387581</v>
       </c>
       <c r="AC4" t="n">
-        <v>167.3341960915435</v>
+        <v>181.0976935723877</v>
       </c>
       <c r="AD4" t="n">
-        <v>135201.9822890671</v>
+        <v>146322.5552867271</v>
       </c>
       <c r="AE4" t="n">
-        <v>184989.316858312</v>
+        <v>200204.9754387581</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.297414398600823e-06</v>
+        <v>1.061865315014546e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.128125</v>
       </c>
       <c r="AH4" t="n">
-        <v>167334.1960915435</v>
+        <v>181097.6935723877</v>
       </c>
     </row>
     <row r="5">
@@ -16763,28 +16763,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>128.3022985353706</v>
+        <v>139.4228715330305</v>
       </c>
       <c r="AB5" t="n">
-        <v>175.5488651539447</v>
+        <v>190.764523734391</v>
       </c>
       <c r="AC5" t="n">
-        <v>158.7947278480809</v>
+        <v>172.5582253289251</v>
       </c>
       <c r="AD5" t="n">
-        <v>128302.2985353706</v>
+        <v>139422.8715330305</v>
       </c>
       <c r="AE5" t="n">
-        <v>175548.8651539448</v>
+        <v>190764.523734391</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.467318557215367e-06</v>
+        <v>1.095922558668576e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.03125</v>
       </c>
       <c r="AH5" t="n">
-        <v>158794.7278480809</v>
+        <v>172558.2253289251</v>
       </c>
     </row>
     <row r="6">
@@ -16869,28 +16869,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>108.275762054591</v>
+        <v>130.4313881782372</v>
       </c>
       <c r="AB6" t="n">
-        <v>148.1476744325213</v>
+        <v>178.4619795321193</v>
       </c>
       <c r="AC6" t="n">
-        <v>134.0086683112887</v>
+        <v>161.4298186785851</v>
       </c>
       <c r="AD6" t="n">
-        <v>108275.762054591</v>
+        <v>130431.3881782372</v>
       </c>
       <c r="AE6" t="n">
-        <v>148147.6744325213</v>
+        <v>178461.9795321193</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.692266572459715e-06</v>
+        <v>1.141013328824754e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.911458333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>134008.6683112887</v>
+        <v>161429.8186785851</v>
       </c>
     </row>
     <row r="7">
@@ -16975,28 +16975,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>104.146524859342</v>
+        <v>126.3021509829882</v>
       </c>
       <c r="AB7" t="n">
-        <v>142.4978699328963</v>
+        <v>172.8121750324943</v>
       </c>
       <c r="AC7" t="n">
-        <v>128.8980732235557</v>
+        <v>156.3192235908521</v>
       </c>
       <c r="AD7" t="n">
-        <v>104146.524859342</v>
+        <v>126302.1509829882</v>
       </c>
       <c r="AE7" t="n">
-        <v>142497.8699328963</v>
+        <v>172812.1750324943</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.756537433958101e-06</v>
+        <v>1.153896406012233e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.879166666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>128898.0732235557</v>
+        <v>156319.2235908521</v>
       </c>
     </row>
     <row r="8">
@@ -17081,28 +17081,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>103.165228779629</v>
+        <v>125.3208549032752</v>
       </c>
       <c r="AB8" t="n">
-        <v>141.1552173449059</v>
+        <v>171.4695224445039</v>
       </c>
       <c r="AC8" t="n">
-        <v>127.6835615141379</v>
+        <v>155.1047118814344</v>
       </c>
       <c r="AD8" t="n">
-        <v>103165.228779629</v>
+        <v>125320.8549032752</v>
       </c>
       <c r="AE8" t="n">
-        <v>141155.2173449059</v>
+        <v>171469.5224445039</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.785013880018029e-06</v>
+        <v>1.159604502092825e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.864583333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>127683.5615141379</v>
+        <v>155104.7118814344</v>
       </c>
     </row>
   </sheetData>
@@ -17378,28 +17378,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>181.8011373239023</v>
+        <v>203.0063839916255</v>
       </c>
       <c r="AB2" t="n">
-        <v>248.7483365865698</v>
+        <v>277.7622905867922</v>
       </c>
       <c r="AC2" t="n">
-        <v>225.0081444633029</v>
+        <v>251.2530474150936</v>
       </c>
       <c r="AD2" t="n">
-        <v>181801.1373239023</v>
+        <v>203006.3839916255</v>
       </c>
       <c r="AE2" t="n">
-        <v>248748.3365865698</v>
+        <v>277762.2905867922</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.287880281652392e-06</v>
+        <v>8.970513704317691e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.026041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>225008.1444633029</v>
+        <v>251253.0474150935</v>
       </c>
     </row>
     <row r="3">
@@ -17484,28 +17484,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>128.0887425461362</v>
+        <v>138.7340810615591</v>
       </c>
       <c r="AB3" t="n">
-        <v>175.2566684280491</v>
+        <v>189.8220902240333</v>
       </c>
       <c r="AC3" t="n">
-        <v>158.530417967604</v>
+        <v>171.705736350082</v>
       </c>
       <c r="AD3" t="n">
-        <v>128088.7425461362</v>
+        <v>138734.0810615591</v>
       </c>
       <c r="AE3" t="n">
-        <v>175256.6684280491</v>
+        <v>189822.0902240333</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.278359912316599e-06</v>
+        <v>1.104265903420008e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.269791666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>158530.417967604</v>
+        <v>171705.736350082</v>
       </c>
     </row>
     <row r="4">
@@ -17590,28 +17590,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>99.17702102616005</v>
+        <v>120.3821781853323</v>
       </c>
       <c r="AB4" t="n">
-        <v>135.6983755493041</v>
+        <v>164.7122070799781</v>
       </c>
       <c r="AC4" t="n">
-        <v>122.747513040781</v>
+        <v>148.9923052113451</v>
       </c>
       <c r="AD4" t="n">
-        <v>99177.02102616004</v>
+        <v>120382.1781853322</v>
       </c>
       <c r="AE4" t="n">
-        <v>135698.3755493041</v>
+        <v>164712.2070799781</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.842785815285026e-06</v>
+        <v>1.222347332123027e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.954166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>122747.5130407811</v>
+        <v>148992.3052113451</v>
       </c>
     </row>
     <row r="5">
@@ -17696,28 +17696,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>93.88250070858869</v>
+        <v>115.0876578677609</v>
       </c>
       <c r="AB5" t="n">
-        <v>128.4541792730552</v>
+        <v>157.4680108037293</v>
       </c>
       <c r="AC5" t="n">
-        <v>116.1946926898418</v>
+        <v>142.4394848604058</v>
       </c>
       <c r="AD5" t="n">
-        <v>93882.50070858869</v>
+        <v>115087.6578677609</v>
       </c>
       <c r="AE5" t="n">
-        <v>128454.1792730553</v>
+        <v>157468.0108037293</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.966740769900523e-06</v>
+        <v>1.248279483817054e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.892708333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>116194.6926898418</v>
+        <v>142439.4848604058</v>
       </c>
     </row>
     <row r="6">
@@ -17802,28 +17802,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>94.78690868427661</v>
+        <v>115.9920658434488</v>
       </c>
       <c r="AB6" t="n">
-        <v>129.6916301650548</v>
+        <v>158.7054616957288</v>
       </c>
       <c r="AC6" t="n">
-        <v>117.3140430054825</v>
+        <v>143.5588351760465</v>
       </c>
       <c r="AD6" t="n">
-        <v>94786.90868427661</v>
+        <v>115992.0658434488</v>
       </c>
       <c r="AE6" t="n">
-        <v>129691.6301650548</v>
+        <v>158705.4616957288</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.940392056285732e-06</v>
+        <v>1.242767168149474e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.90625</v>
       </c>
       <c r="AH6" t="n">
-        <v>117314.0430054825</v>
+        <v>143558.8351760465</v>
       </c>
     </row>
   </sheetData>
@@ -32920,28 +32920,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>135.1842367293873</v>
+        <v>155.715007135175</v>
       </c>
       <c r="AB2" t="n">
-        <v>184.9650366006791</v>
+        <v>213.0561424235291</v>
       </c>
       <c r="AC2" t="n">
-        <v>167.3122331076216</v>
+        <v>192.7223632168624</v>
       </c>
       <c r="AD2" t="n">
-        <v>135184.2367293873</v>
+        <v>155715.007135175</v>
       </c>
       <c r="AE2" t="n">
-        <v>184965.0366006791</v>
+        <v>213056.1424235291</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.868290736717393e-06</v>
+        <v>1.058296190735363e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.667708333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>167312.2331076216</v>
+        <v>192722.3632168624</v>
       </c>
     </row>
     <row r="3">
@@ -33026,28 +33026,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>104.500266036192</v>
+        <v>114.7657407476369</v>
       </c>
       <c r="AB3" t="n">
-        <v>142.9818742170214</v>
+        <v>157.0275495979948</v>
       </c>
       <c r="AC3" t="n">
-        <v>129.3358848181083</v>
+        <v>142.0410606539553</v>
       </c>
       <c r="AD3" t="n">
-        <v>104500.266036192</v>
+        <v>114765.7407476369</v>
       </c>
       <c r="AE3" t="n">
-        <v>142981.8742170214</v>
+        <v>157027.5495979948</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.839068948697765e-06</v>
+        <v>1.269329372471845e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.058333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>129335.8848181083</v>
+        <v>142041.0606539553</v>
       </c>
     </row>
     <row r="4">
@@ -33132,28 +33132,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>87.90270730975604</v>
+        <v>108.3481368609721</v>
       </c>
       <c r="AB4" t="n">
-        <v>120.2723621349105</v>
+        <v>148.246700835563</v>
       </c>
       <c r="AC4" t="n">
-        <v>108.7937366961065</v>
+        <v>134.0982437734085</v>
       </c>
       <c r="AD4" t="n">
-        <v>87902.70730975604</v>
+        <v>108348.1368609721</v>
       </c>
       <c r="AE4" t="n">
-        <v>120272.3621349105</v>
+        <v>148246.700835563</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.042378671355141e-06</v>
+        <v>1.313525973838518e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.955208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>108793.7366961065</v>
+        <v>134098.2437734086</v>
       </c>
     </row>
     <row r="5">
@@ -33238,28 +33238,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>88.44704549368861</v>
+        <v>108.8924750449047</v>
       </c>
       <c r="AB5" t="n">
-        <v>121.0171496526725</v>
+        <v>148.991488353325</v>
       </c>
       <c r="AC5" t="n">
-        <v>109.4674427384894</v>
+        <v>134.7719498157914</v>
       </c>
       <c r="AD5" t="n">
-        <v>88447.04549368861</v>
+        <v>108892.4750449047</v>
       </c>
       <c r="AE5" t="n">
-        <v>121017.1496526725</v>
+        <v>148991.488353325</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.042550096079136e-06</v>
+        <v>1.313563239101053e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.955208333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>109467.4427384894</v>
+        <v>134771.9498157914</v>
       </c>
     </row>
   </sheetData>
@@ -33535,28 +33535,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.34233344499856</v>
+        <v>94.85480029459004</v>
       </c>
       <c r="AB2" t="n">
-        <v>116.7691456574282</v>
+        <v>129.784522461452</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.6248622824388</v>
+        <v>117.3980697914868</v>
       </c>
       <c r="AD2" t="n">
-        <v>85342.33344499856</v>
+        <v>94854.80029459004</v>
       </c>
       <c r="AE2" t="n">
-        <v>116769.1456574282</v>
+        <v>129784.522461452</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.01098669690534e-06</v>
+        <v>1.429729393596781e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.188541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>105624.8622824388</v>
+        <v>117398.0697914868</v>
       </c>
     </row>
     <row r="3">
@@ -33641,28 +33641,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>85.12302239868562</v>
+        <v>94.6354892482771</v>
       </c>
       <c r="AB3" t="n">
-        <v>116.4690746085425</v>
+        <v>129.4844514125663</v>
       </c>
       <c r="AC3" t="n">
-        <v>105.3534295933062</v>
+        <v>117.1266371023542</v>
       </c>
       <c r="AD3" t="n">
-        <v>85123.02239868561</v>
+        <v>94635.4892482771</v>
       </c>
       <c r="AE3" t="n">
-        <v>116469.0746085425</v>
+        <v>129484.4514125663</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.061768219046322e-06</v>
+        <v>1.441807915562887e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.161458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>105353.4295933062</v>
+        <v>117126.6371023542</v>
       </c>
     </row>
   </sheetData>
@@ -33938,28 +33938,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>345.6612352054293</v>
+        <v>380.0604119082978</v>
       </c>
       <c r="AB2" t="n">
-        <v>472.948951505511</v>
+        <v>520.0154226549462</v>
       </c>
       <c r="AC2" t="n">
-        <v>427.8113673618469</v>
+        <v>470.3858805629869</v>
       </c>
       <c r="AD2" t="n">
-        <v>345661.2352054293</v>
+        <v>380060.4119082978</v>
       </c>
       <c r="AE2" t="n">
-        <v>472948.9515055111</v>
+        <v>520015.4226549462</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.983995768532744e-06</v>
+        <v>5.790677122352207e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.371875</v>
       </c>
       <c r="AH2" t="n">
-        <v>427811.3673618468</v>
+        <v>470385.8805629869</v>
       </c>
     </row>
     <row r="3">
@@ -34044,28 +34044,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>179.432559567146</v>
+        <v>202.4790721694528</v>
       </c>
       <c r="AB3" t="n">
-        <v>245.5075440055017</v>
+        <v>277.0407992883402</v>
       </c>
       <c r="AC3" t="n">
-        <v>222.07664857769</v>
+        <v>250.6004142335462</v>
       </c>
       <c r="AD3" t="n">
-        <v>179432.559567146</v>
+        <v>202479.0721694528</v>
       </c>
       <c r="AE3" t="n">
-        <v>245507.5440055017</v>
+        <v>277040.7992883401</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.450374341941555e-06</v>
+        <v>8.636299407507496e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.601041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>222076.64857769</v>
+        <v>250600.4142335462</v>
       </c>
     </row>
     <row r="4">
@@ -34150,28 +34150,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>158.5898619889297</v>
+        <v>170.1132077986342</v>
       </c>
       <c r="AB4" t="n">
-        <v>216.9896456640794</v>
+        <v>232.7563957750471</v>
       </c>
       <c r="AC4" t="n">
-        <v>196.2804584288423</v>
+        <v>210.5424520379969</v>
       </c>
       <c r="AD4" t="n">
-        <v>158589.8619889297</v>
+        <v>170113.2077986342</v>
       </c>
       <c r="AE4" t="n">
-        <v>216989.6456640794</v>
+        <v>232756.395775047</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.881978948280664e-06</v>
+        <v>9.473861895425711e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.283333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>196280.4584288423</v>
+        <v>210542.4520379969</v>
       </c>
     </row>
     <row r="5">
@@ -34256,28 +34256,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>145.4426711027776</v>
+        <v>156.966016912482</v>
       </c>
       <c r="AB5" t="n">
-        <v>199.0010790805285</v>
+        <v>214.7678291914961</v>
       </c>
       <c r="AC5" t="n">
-        <v>180.0086953929079</v>
+        <v>194.2706890020626</v>
       </c>
       <c r="AD5" t="n">
-        <v>145442.6711027776</v>
+        <v>156966.016912482</v>
       </c>
       <c r="AE5" t="n">
-        <v>199001.0790805285</v>
+        <v>214767.8291914961</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.181563322092517e-06</v>
+        <v>1.005522879880424e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.09375</v>
       </c>
       <c r="AH5" t="n">
-        <v>180008.6953929079</v>
+        <v>194270.6890020626</v>
       </c>
     </row>
     <row r="6">
@@ -34362,28 +34362,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>139.9975052794862</v>
+        <v>151.5208510891907</v>
       </c>
       <c r="AB6" t="n">
-        <v>191.550762977343</v>
+        <v>207.3175130883106</v>
       </c>
       <c r="AC6" t="n">
-        <v>173.2694270020238</v>
+        <v>187.5314206111784</v>
       </c>
       <c r="AD6" t="n">
-        <v>139997.5052794862</v>
+        <v>151520.8510891907</v>
       </c>
       <c r="AE6" t="n">
-        <v>191550.762977343</v>
+        <v>207317.5130883106</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.301581715299114e-06</v>
+        <v>1.02881338756585e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.022916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>173269.4270020238</v>
+        <v>187531.4206111784</v>
       </c>
     </row>
     <row r="7">
@@ -34468,28 +34468,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>121.5424254324718</v>
+        <v>144.503597180207</v>
       </c>
       <c r="AB7" t="n">
-        <v>166.2997085500097</v>
+        <v>197.7161967106505</v>
       </c>
       <c r="AC7" t="n">
-        <v>150.4282977691496</v>
+        <v>178.846440393067</v>
       </c>
       <c r="AD7" t="n">
-        <v>121542.4254324718</v>
+        <v>144503.597180207</v>
       </c>
       <c r="AE7" t="n">
-        <v>166299.7085500096</v>
+        <v>197716.1967106505</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.459759802756014e-06</v>
+        <v>1.059509082310232e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.935416666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>150428.2977691496</v>
+        <v>178846.440393067</v>
       </c>
     </row>
     <row r="8">
@@ -34574,28 +34574,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>118.057910439214</v>
+        <v>141.0190821869492</v>
       </c>
       <c r="AB8" t="n">
-        <v>161.5320414102846</v>
+        <v>192.9485295709254</v>
       </c>
       <c r="AC8" t="n">
-        <v>146.1156500897756</v>
+        <v>174.5337927136929</v>
       </c>
       <c r="AD8" t="n">
-        <v>118057.910439214</v>
+        <v>141019.0821869492</v>
       </c>
       <c r="AE8" t="n">
-        <v>161532.0414102846</v>
+        <v>192948.5295709255</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.518999650684911e-06</v>
+        <v>1.071005038026757e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.904166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>146115.6500897756</v>
+        <v>174533.7927136929</v>
       </c>
     </row>
     <row r="9">
@@ -34680,28 +34680,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>115.1947181955146</v>
+        <v>138.1558899432498</v>
       </c>
       <c r="AB9" t="n">
-        <v>157.6144954673301</v>
+        <v>189.030983627971</v>
       </c>
       <c r="AC9" t="n">
-        <v>142.5719892333051</v>
+        <v>170.9901318572225</v>
       </c>
       <c r="AD9" t="n">
-        <v>115194.7181955145</v>
+        <v>138155.8899432498</v>
       </c>
       <c r="AE9" t="n">
-        <v>157614.4954673301</v>
+        <v>189030.983627971</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.550696816070243e-06</v>
+        <v>1.077156120825728e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.8875</v>
       </c>
       <c r="AH9" t="n">
-        <v>142571.9892333052</v>
+        <v>170990.1318572225</v>
       </c>
     </row>
     <row r="10">
@@ -34786,28 +34786,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>111.720227430887</v>
+        <v>134.6813991786222</v>
       </c>
       <c r="AB10" t="n">
-        <v>152.8605439194548</v>
+        <v>184.2770320800956</v>
       </c>
       <c r="AC10" t="n">
-        <v>138.2717481489446</v>
+        <v>166.689890772862</v>
       </c>
       <c r="AD10" t="n">
-        <v>111720.227430887</v>
+        <v>134681.3991786222</v>
       </c>
       <c r="AE10" t="n">
-        <v>152860.5439194548</v>
+        <v>184277.0320800956</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.62147689411516e-06</v>
+        <v>1.090891548435082e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>3</v>
+        <v>2.851041666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>138271.7481489446</v>
+        <v>166689.890772862</v>
       </c>
     </row>
     <row r="11">
@@ -34892,28 +34892,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>112.7164249594271</v>
+        <v>135.6775967071623</v>
       </c>
       <c r="AB11" t="n">
-        <v>154.2235853271358</v>
+        <v>185.6400734877766</v>
       </c>
       <c r="AC11" t="n">
-        <v>139.5047027977176</v>
+        <v>167.922845421635</v>
       </c>
       <c r="AD11" t="n">
-        <v>112716.4249594271</v>
+        <v>135677.5967071623</v>
       </c>
       <c r="AE11" t="n">
-        <v>154223.5853271358</v>
+        <v>185640.0734877767</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.598396433883121e-06</v>
+        <v>1.086412604649423e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>3</v>
+        <v>2.8625</v>
       </c>
       <c r="AH11" t="n">
-        <v>139504.7027977176</v>
+        <v>167922.845421635</v>
       </c>
     </row>
   </sheetData>
@@ -35189,28 +35189,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>540.5514432255604</v>
+        <v>588.4134251874868</v>
       </c>
       <c r="AB2" t="n">
-        <v>739.6063320678195</v>
+        <v>805.0932073097474</v>
       </c>
       <c r="AC2" t="n">
-        <v>669.0193417792726</v>
+        <v>728.2562415595175</v>
       </c>
       <c r="AD2" t="n">
-        <v>540551.4432255605</v>
+        <v>588413.4251874868</v>
       </c>
       <c r="AE2" t="n">
-        <v>739606.3320678195</v>
+        <v>805093.2073097475</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.304026157468697e-06</v>
+        <v>4.323256777849838e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>669019.3417792727</v>
+        <v>728256.2415595176</v>
       </c>
     </row>
     <row r="3">
@@ -35295,28 +35295,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>222.8122457416386</v>
+        <v>246.7859071498872</v>
       </c>
       <c r="AB3" t="n">
-        <v>304.8615444060991</v>
+        <v>337.663365588145</v>
       </c>
       <c r="AC3" t="n">
-        <v>275.7659864839361</v>
+        <v>305.4372478900231</v>
       </c>
       <c r="AD3" t="n">
-        <v>222812.2457416386</v>
+        <v>246785.9071498872</v>
       </c>
       <c r="AE3" t="n">
-        <v>304861.5444060991</v>
+        <v>337663.365588145</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.924213674211115e-06</v>
+        <v>7.363364044183912e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.935416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>275765.9864839361</v>
+        <v>305437.2478900231</v>
       </c>
     </row>
     <row r="4">
@@ -35401,28 +35401,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>188.7462545726718</v>
+        <v>212.5493237803282</v>
       </c>
       <c r="AB4" t="n">
-        <v>258.2509524032801</v>
+        <v>290.8193618104792</v>
       </c>
       <c r="AC4" t="n">
-        <v>233.6038439634744</v>
+        <v>263.0639700869104</v>
       </c>
       <c r="AD4" t="n">
-        <v>188746.2545726718</v>
+        <v>212549.3237803282</v>
       </c>
       <c r="AE4" t="n">
-        <v>258250.95240328</v>
+        <v>290819.3618104791</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.443171879445715e-06</v>
+        <v>8.337133187788677e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.476041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>233603.8439634744</v>
+        <v>263063.9700869105</v>
       </c>
     </row>
     <row r="5">
@@ -35507,28 +35507,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>172.60386805554</v>
+        <v>184.5907882682153</v>
       </c>
       <c r="AB5" t="n">
-        <v>236.1642270187194</v>
+        <v>252.5652600792908</v>
       </c>
       <c r="AC5" t="n">
-        <v>213.6250446506955</v>
+        <v>228.4607861349656</v>
       </c>
       <c r="AD5" t="n">
-        <v>172603.86805554</v>
+        <v>184590.7882682153</v>
       </c>
       <c r="AE5" t="n">
-        <v>236164.2270187194</v>
+        <v>252565.2600792908</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.746391745075644e-06</v>
+        <v>8.906092587409174e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.254166666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>213625.0446506955</v>
+        <v>228460.7861349656</v>
       </c>
     </row>
     <row r="6">
@@ -35613,28 +35613,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>160.4515819108887</v>
+        <v>172.4385021235641</v>
       </c>
       <c r="AB6" t="n">
-        <v>219.5369329945887</v>
+        <v>235.9379660551601</v>
       </c>
       <c r="AC6" t="n">
-        <v>198.5846362316689</v>
+        <v>213.4203777159389</v>
       </c>
       <c r="AD6" t="n">
-        <v>160451.5819108887</v>
+        <v>172438.5021235641</v>
       </c>
       <c r="AE6" t="n">
-        <v>219536.9329945887</v>
+        <v>235937.9660551601</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.992377934356844e-06</v>
+        <v>9.367659161477834e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.09375</v>
       </c>
       <c r="AH6" t="n">
-        <v>198584.6362316689</v>
+        <v>213420.3777159389</v>
       </c>
     </row>
     <row r="7">
@@ -35719,28 +35719,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>157.7145931679161</v>
+        <v>169.7015133805915</v>
       </c>
       <c r="AB7" t="n">
-        <v>215.792064249034</v>
+        <v>232.1930973096054</v>
       </c>
       <c r="AC7" t="n">
-        <v>195.1971725032324</v>
+        <v>210.0329139875025</v>
       </c>
       <c r="AD7" t="n">
-        <v>157714.5931679161</v>
+        <v>169701.5133805915</v>
       </c>
       <c r="AE7" t="n">
-        <v>215792.064249034</v>
+        <v>232193.0973096054</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.04872196806803e-06</v>
+        <v>9.473382668497779e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.059375</v>
       </c>
       <c r="AH7" t="n">
-        <v>195197.1725032324</v>
+        <v>210032.9139875025</v>
       </c>
     </row>
     <row r="8">
@@ -35825,28 +35825,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>140.4304260010758</v>
+        <v>164.3187465547528</v>
       </c>
       <c r="AB8" t="n">
-        <v>192.1431042077358</v>
+        <v>224.8281582675841</v>
       </c>
       <c r="AC8" t="n">
-        <v>173.8052360167443</v>
+        <v>203.3708743908925</v>
       </c>
       <c r="AD8" t="n">
-        <v>140430.4260010758</v>
+        <v>164318.7465547528</v>
       </c>
       <c r="AE8" t="n">
-        <v>192143.1042077358</v>
+        <v>224828.1582675841</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.155182537027584e-06</v>
+        <v>9.673144452814414e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.995833333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>173805.2360167443</v>
+        <v>203370.8743908925</v>
       </c>
     </row>
     <row r="9">
@@ -35931,28 +35931,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>137.2093072798681</v>
+        <v>161.0976278335451</v>
       </c>
       <c r="AB9" t="n">
-        <v>187.7358274676529</v>
+        <v>220.4208815275013</v>
       </c>
       <c r="AC9" t="n">
-        <v>169.8185835830818</v>
+        <v>199.38422195723</v>
       </c>
       <c r="AD9" t="n">
-        <v>137209.3072798681</v>
+        <v>161097.6278335451</v>
       </c>
       <c r="AE9" t="n">
-        <v>187735.8274676529</v>
+        <v>220420.8815275012</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.212712760922164e-06</v>
+        <v>9.781093717876885e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.9625</v>
       </c>
       <c r="AH9" t="n">
-        <v>169818.5835830818</v>
+        <v>199384.22195723</v>
       </c>
     </row>
     <row r="10">
@@ -36037,28 +36037,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>133.8013509333888</v>
+        <v>157.6896714870658</v>
       </c>
       <c r="AB10" t="n">
-        <v>183.0729112459793</v>
+        <v>215.7579653058277</v>
       </c>
       <c r="AC10" t="n">
-        <v>165.6006895411592</v>
+        <v>195.1663279153074</v>
       </c>
       <c r="AD10" t="n">
-        <v>133801.3509333887</v>
+        <v>157689.6714870658</v>
       </c>
       <c r="AE10" t="n">
-        <v>183072.9112459793</v>
+        <v>215757.9653058277</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.267722330677031e-06</v>
+        <v>9.884313247098991e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>3</v>
+        <v>2.932291666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>165600.6895411592</v>
+        <v>195166.3279153074</v>
       </c>
     </row>
     <row r="11">
@@ -36143,28 +36143,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>131.0576949696593</v>
+        <v>154.9460155233363</v>
       </c>
       <c r="AB11" t="n">
-        <v>179.3189201148482</v>
+        <v>212.0039741746965</v>
       </c>
       <c r="AC11" t="n">
-        <v>162.2049740548223</v>
+        <v>191.7706124289706</v>
       </c>
       <c r="AD11" t="n">
-        <v>131057.6949696594</v>
+        <v>154946.0155233363</v>
       </c>
       <c r="AE11" t="n">
-        <v>179318.9201148482</v>
+        <v>212003.9741746965</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.306570059183163e-06</v>
+        <v>9.957206822991689e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>3</v>
+        <v>2.910416666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>162204.9740548223</v>
+        <v>191770.6124289706</v>
       </c>
     </row>
     <row r="12">
@@ -36249,28 +36249,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>126.4295847716652</v>
+        <v>150.3179053253422</v>
       </c>
       <c r="AB12" t="n">
-        <v>172.986535564144</v>
+        <v>205.6715896239924</v>
       </c>
       <c r="AC12" t="n">
-        <v>156.4769433980779</v>
+        <v>186.0425817722261</v>
       </c>
       <c r="AD12" t="n">
-        <v>126429.5847716652</v>
+        <v>150317.9053253422</v>
       </c>
       <c r="AE12" t="n">
-        <v>172986.5355641441</v>
+        <v>205671.5896239924</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.389010276929003e-06</v>
+        <v>1.011189700694719e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>3</v>
+        <v>2.865625</v>
       </c>
       <c r="AH12" t="n">
-        <v>156476.9433980779</v>
+        <v>186042.5817722261</v>
       </c>
     </row>
     <row r="13">
@@ -36355,28 +36355,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>125.9654095879126</v>
+        <v>149.8537301415897</v>
       </c>
       <c r="AB13" t="n">
-        <v>172.3514305997702</v>
+        <v>205.0364846596185</v>
       </c>
       <c r="AC13" t="n">
-        <v>155.9024519601283</v>
+        <v>185.4680903342765</v>
       </c>
       <c r="AD13" t="n">
-        <v>125965.4095879126</v>
+        <v>149853.7301415897</v>
       </c>
       <c r="AE13" t="n">
-        <v>172351.4305997702</v>
+        <v>205036.4846596185</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.367658853627922e-06</v>
+        <v>1.007183336218174e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>3</v>
+        <v>2.877083333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>155902.4519601283</v>
+        <v>185468.0903342765</v>
       </c>
     </row>
     <row r="14">
@@ -36461,28 +36461,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>123.9905995477919</v>
+        <v>147.8789201014689</v>
       </c>
       <c r="AB14" t="n">
-        <v>169.6494083804083</v>
+        <v>202.3344624402566</v>
       </c>
       <c r="AC14" t="n">
-        <v>153.4583069490694</v>
+        <v>183.0239453232176</v>
       </c>
       <c r="AD14" t="n">
-        <v>123990.5995477919</v>
+        <v>147878.9201014689</v>
       </c>
       <c r="AE14" t="n">
-        <v>169649.4083804083</v>
+        <v>202334.4624402566</v>
       </c>
       <c r="AF14" t="n">
-        <v>5.385451706378822e-06</v>
+        <v>1.010521973281961e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>3</v>
+        <v>2.867708333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>153458.3069490694</v>
+        <v>183023.9453232176</v>
       </c>
     </row>
     <row r="15">
@@ -36567,28 +36567,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>124.0750185767132</v>
+        <v>147.9633391303903</v>
       </c>
       <c r="AB15" t="n">
-        <v>169.7649142200831</v>
+        <v>202.4499682799314</v>
       </c>
       <c r="AC15" t="n">
-        <v>153.5627890735191</v>
+        <v>183.1284274476673</v>
       </c>
       <c r="AD15" t="n">
-        <v>124075.0185767132</v>
+        <v>147963.3391303903</v>
       </c>
       <c r="AE15" t="n">
-        <v>169764.9142200831</v>
+        <v>202449.9682799314</v>
       </c>
       <c r="AF15" t="n">
-        <v>5.393310216343803e-06</v>
+        <v>1.011996537985134e-05</v>
       </c>
       <c r="AG15" t="n">
-        <v>3</v>
+        <v>2.863541666666666</v>
       </c>
       <c r="AH15" t="n">
-        <v>153562.7890735191</v>
+        <v>183128.4274476673</v>
       </c>
     </row>
   </sheetData>
@@ -36864,28 +36864,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.18368973361657</v>
+        <v>96.33348345949091</v>
       </c>
       <c r="AB2" t="n">
-        <v>106.974373514449</v>
+        <v>131.8077220025655</v>
       </c>
       <c r="AC2" t="n">
-        <v>96.76488944573333</v>
+        <v>119.2281780079755</v>
       </c>
       <c r="AD2" t="n">
-        <v>78183.68973361657</v>
+        <v>96333.4834594909</v>
       </c>
       <c r="AE2" t="n">
-        <v>106974.373514449</v>
+        <v>131807.7220025655</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.855346803441453e-06</v>
+        <v>1.464377799588042e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.389583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>96764.88944573334</v>
+        <v>119228.1780079755</v>
       </c>
     </row>
   </sheetData>
@@ -37161,28 +37161,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>202.0134203316873</v>
+        <v>223.5560629343523</v>
       </c>
       <c r="AB2" t="n">
-        <v>276.4036739008004</v>
+        <v>305.879267904068</v>
       </c>
       <c r="AC2" t="n">
-        <v>250.0240951987819</v>
+        <v>276.686579879643</v>
       </c>
       <c r="AD2" t="n">
-        <v>202013.4203316873</v>
+        <v>223556.0629343523</v>
       </c>
       <c r="AE2" t="n">
-        <v>276403.6739008004</v>
+        <v>305879.267904068</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.030564297716719e-06</v>
+        <v>8.300074385173732e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.220833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>250024.0951987819</v>
+        <v>276686.579879643</v>
       </c>
     </row>
     <row r="3">
@@ -37267,28 +37267,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>135.9498971904241</v>
+        <v>157.4071989385174</v>
       </c>
       <c r="AB3" t="n">
-        <v>186.0126470220247</v>
+        <v>215.3714739030947</v>
       </c>
       <c r="AC3" t="n">
-        <v>168.2598610606848</v>
+        <v>194.8167227096071</v>
       </c>
       <c r="AD3" t="n">
-        <v>135949.8971904241</v>
+        <v>157407.1989385174</v>
       </c>
       <c r="AE3" t="n">
-        <v>186012.6470220247</v>
+        <v>215371.4739030947</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.145901553749665e-06</v>
+        <v>1.05968699467464e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.305208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>168259.8610606848</v>
+        <v>194816.7227096071</v>
       </c>
     </row>
     <row r="4">
@@ -37373,28 +37373,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>119.2577944281064</v>
+        <v>130.0718309110002</v>
       </c>
       <c r="AB4" t="n">
-        <v>163.173775619032</v>
+        <v>177.9700174165388</v>
       </c>
       <c r="AC4" t="n">
-        <v>147.6006994898291</v>
+        <v>160.9848087368424</v>
       </c>
       <c r="AD4" t="n">
-        <v>119257.7944281064</v>
+        <v>130071.8309110002</v>
       </c>
       <c r="AE4" t="n">
-        <v>163173.775619032</v>
+        <v>177970.0174165388</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.622573508414404e-06</v>
+        <v>1.157847261793683e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.025</v>
       </c>
       <c r="AH4" t="n">
-        <v>147600.6994898291</v>
+        <v>160984.8087368424</v>
       </c>
     </row>
     <row r="5">
@@ -37479,28 +37479,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>100.9176608836929</v>
+        <v>122.4602139778069</v>
       </c>
       <c r="AB5" t="n">
-        <v>138.0799957939902</v>
+        <v>167.5554673277094</v>
       </c>
       <c r="AC5" t="n">
-        <v>124.9018347919401</v>
+        <v>151.5642086915746</v>
       </c>
       <c r="AD5" t="n">
-        <v>100917.6608836929</v>
+        <v>122460.2139778069</v>
       </c>
       <c r="AE5" t="n">
-        <v>138079.9957939902</v>
+        <v>167555.4673277094</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.811348013242236e-06</v>
+        <v>1.196721283304342e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.927083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>124901.8347919401</v>
+        <v>151564.2086915746</v>
       </c>
     </row>
     <row r="6">
@@ -37585,28 +37585,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>97.36755811756687</v>
+        <v>118.9101112116808</v>
       </c>
       <c r="AB6" t="n">
-        <v>133.2225885698986</v>
+        <v>162.6980601036178</v>
       </c>
       <c r="AC6" t="n">
-        <v>120.5080116959004</v>
+        <v>147.170385595535</v>
       </c>
       <c r="AD6" t="n">
-        <v>97367.55811756688</v>
+        <v>118910.1112116808</v>
       </c>
       <c r="AE6" t="n">
-        <v>133222.5885698986</v>
+        <v>162698.0601036178</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.893324485061935e-06</v>
+        <v>1.213602562541669e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.886458333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>120508.0116959004</v>
+        <v>147170.385595535</v>
       </c>
     </row>
     <row r="7">
@@ -37691,28 +37691,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>97.86309858893175</v>
+        <v>119.4056516830457</v>
       </c>
       <c r="AB7" t="n">
-        <v>133.9006089045224</v>
+        <v>163.3760804382416</v>
       </c>
       <c r="AC7" t="n">
-        <v>121.1213227213954</v>
+        <v>147.7836966210299</v>
       </c>
       <c r="AD7" t="n">
-        <v>97863.09858893175</v>
+        <v>119405.6516830457</v>
       </c>
       <c r="AE7" t="n">
-        <v>133900.6089045224</v>
+        <v>163376.0804382416</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.892344686593969e-06</v>
+        <v>1.213400794263932e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.886458333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>121121.3227213954</v>
+        <v>147783.6966210299</v>
       </c>
     </row>
   </sheetData>
@@ -37988,28 +37988,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>274.6974538649789</v>
+        <v>308.396034996728</v>
       </c>
       <c r="AB2" t="n">
-        <v>375.853175174428</v>
+        <v>421.9610605553622</v>
       </c>
       <c r="AC2" t="n">
-        <v>339.9822756490243</v>
+        <v>381.6896891620257</v>
       </c>
       <c r="AD2" t="n">
-        <v>274697.4538649789</v>
+        <v>308396.0349967279</v>
       </c>
       <c r="AE2" t="n">
-        <v>375853.175174428</v>
+        <v>421961.0605553622</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.35481694254748e-06</v>
+        <v>6.646510024514911e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.882291666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>339982.2756490243</v>
+        <v>381689.6891620257</v>
       </c>
     </row>
     <row r="3">
@@ -38094,28 +38094,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>159.1066846737431</v>
+        <v>181.4587071306977</v>
       </c>
       <c r="AB3" t="n">
-        <v>217.6967852620484</v>
+        <v>248.2798084892736</v>
       </c>
       <c r="AC3" t="n">
-        <v>196.920109616058</v>
+        <v>224.5843320300292</v>
       </c>
       <c r="AD3" t="n">
-        <v>159106.6846737431</v>
+        <v>181458.7071306977</v>
       </c>
       <c r="AE3" t="n">
-        <v>217696.7852620484</v>
+        <v>248279.8084892736</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.760544671637227e-06</v>
+        <v>9.431515466880072e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.440625</v>
       </c>
       <c r="AH3" t="n">
-        <v>196920.109616058</v>
+        <v>224584.3320300292</v>
       </c>
     </row>
     <row r="4">
@@ -38200,28 +38200,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>142.8681029562724</v>
+        <v>154.1294997935969</v>
       </c>
       <c r="AB4" t="n">
-        <v>195.4784413605514</v>
+        <v>210.8867813311358</v>
       </c>
       <c r="AC4" t="n">
-        <v>176.8222532728713</v>
+        <v>190.760042902409</v>
       </c>
       <c r="AD4" t="n">
-        <v>142868.1029562724</v>
+        <v>154129.4997935969</v>
       </c>
       <c r="AE4" t="n">
-        <v>195478.4413605514</v>
+        <v>210886.7813311358</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.152815187695713e-06</v>
+        <v>1.0208675580816e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.178125</v>
       </c>
       <c r="AH4" t="n">
-        <v>176822.2532728713</v>
+        <v>190760.042902409</v>
       </c>
     </row>
     <row r="5">
@@ -38306,28 +38306,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>131.539601462558</v>
+        <v>142.8009982998824</v>
       </c>
       <c r="AB5" t="n">
-        <v>179.9782858386458</v>
+        <v>195.3866258092302</v>
       </c>
       <c r="AC5" t="n">
-        <v>162.8014108393665</v>
+        <v>176.7392004689042</v>
       </c>
       <c r="AD5" t="n">
-        <v>131539.601462558</v>
+        <v>142800.9982998824</v>
       </c>
       <c r="AE5" t="n">
-        <v>179978.2858386458</v>
+        <v>195386.6258092302</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.446035433166285e-06</v>
+        <v>1.078959887239535e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.007291666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>162801.4108393665</v>
+        <v>176739.2004689042</v>
       </c>
     </row>
     <row r="6">
@@ -38412,28 +38412,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>115.7752279906018</v>
+        <v>138.212501793577</v>
       </c>
       <c r="AB6" t="n">
-        <v>158.4087745792528</v>
+        <v>189.1084424591272</v>
       </c>
       <c r="AC6" t="n">
-        <v>143.2904634615639</v>
+        <v>171.0601981262473</v>
       </c>
       <c r="AD6" t="n">
-        <v>115775.2279906018</v>
+        <v>138212.501793577</v>
       </c>
       <c r="AE6" t="n">
-        <v>158408.7745792528</v>
+        <v>189108.4424591272</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.539268465640306e-06</v>
+        <v>1.097431067502621e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.95625</v>
       </c>
       <c r="AH6" t="n">
-        <v>143290.4634615639</v>
+        <v>171060.1981262473</v>
       </c>
     </row>
     <row r="7">
@@ -38518,28 +38518,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>110.9741075820461</v>
+        <v>133.4113813850213</v>
       </c>
       <c r="AB7" t="n">
-        <v>151.8396698257866</v>
+        <v>182.539337705661</v>
       </c>
       <c r="AC7" t="n">
-        <v>137.34830484597</v>
+        <v>165.1180395106535</v>
       </c>
       <c r="AD7" t="n">
-        <v>110974.1075820461</v>
+        <v>133411.3813850213</v>
       </c>
       <c r="AE7" t="n">
-        <v>151839.6698257866</v>
+        <v>182539.337705661</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.629671490383244e-06</v>
+        <v>1.115341571130403e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.909375</v>
       </c>
       <c r="AH7" t="n">
-        <v>137348.30484597</v>
+        <v>165118.0395106535</v>
       </c>
     </row>
     <row r="8">
@@ -38624,28 +38624,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>106.6416295437153</v>
+        <v>129.0789033466905</v>
       </c>
       <c r="AB8" t="n">
-        <v>145.9117822383039</v>
+        <v>176.6114501181784</v>
       </c>
       <c r="AC8" t="n">
-        <v>131.9861665299923</v>
+        <v>159.7559011946758</v>
       </c>
       <c r="AD8" t="n">
-        <v>106641.6295437153</v>
+        <v>129078.9033466905</v>
       </c>
       <c r="AE8" t="n">
-        <v>145911.7822383039</v>
+        <v>176611.4501181784</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.713313941101927e-06</v>
+        <v>1.131912680573846e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.866666666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>131986.1665299923</v>
+        <v>159755.9011946758</v>
       </c>
     </row>
     <row r="9">
@@ -38730,28 +38730,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>106.9373441719708</v>
+        <v>129.374617974946</v>
       </c>
       <c r="AB9" t="n">
-        <v>146.3163920386916</v>
+        <v>177.016059918566</v>
       </c>
       <c r="AC9" t="n">
-        <v>132.3521609389046</v>
+        <v>160.121895603588</v>
       </c>
       <c r="AD9" t="n">
-        <v>106937.3441719708</v>
+        <v>129374.617974946</v>
       </c>
       <c r="AE9" t="n">
-        <v>146316.3920386916</v>
+        <v>177016.0599185661</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.699635570401691e-06</v>
+        <v>1.129202743503208e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.872916666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>132352.1609389046</v>
+        <v>160121.895603588</v>
       </c>
     </row>
   </sheetData>
